--- a/2/csf2425-lab2-template-timeline.xlsx
+++ b/2/csf2425-lab2-template-timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsantos/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358765D-3EF0-3C4E-9FBD-E1FBAD632FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB97D5-8CE6-4FA6-9B59-287850F7A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="760" windowWidth="33620" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="1049">
   <si>
     <t>Event #</t>
   </si>
@@ -3058,16 +3058,203 @@
   <si>
     <t>Digital Forensics Timeline Lab2</t>
   </si>
+  <si>
+    <t>syslog</t>
+  </si>
+  <si>
+    <t>Criação no host de exploits e scripts (exploit.py, exploit.htpl, cookieSteal.html, reflectedXSS.html, source.py, wordlistFromPdf.py)</t>
+  </si>
+  <si>
+    <t>drag_and_drop/ (cmd: stat)</t>
+  </si>
+  <si>
+    <t>System upgrades performed, including security packages.</t>
+  </si>
+  <si>
+    <t>history.log</t>
+  </si>
+  <si>
+    <t>Installed python3.12, venv</t>
+  </si>
+  <si>
+    <t>Uso do Firefox: pesquisa sobre F1 e YouTube (jazz).</t>
+  </si>
+  <si>
+    <t>Git clone: from https://github.com/MuskyBoi/ZYRA.git</t>
+  </si>
+  <si>
+    <t>.git/logs/refs/main</t>
+  </si>
+  <si>
+    <t>Login Thunderbird → Gmail sussyjohnnyhacker@gmail.com</t>
+  </si>
+  <si>
+    <t>auth.log</t>
+  </si>
+  <si>
+    <t>KeePassXC abre Passwords.kdbx</t>
+  </si>
+  <si>
+    <t>xbel (bookmarks)</t>
+  </si>
+  <si>
+    <t>drag_and_drop/7qfBXj</t>
+  </si>
+  <si>
+    <t>Importação via Drag &amp; Drop dos exploits (criados 25/08) + PDFs e imagens (birth timestamps no guest).</t>
+  </si>
+  <si>
+    <t>drag_and_drop/N2JdwH/ (Birth timestamps)</t>
+  </si>
+  <si>
+    <t>Diretório ~/backups/ atualizado com ficheiros maliciosos.</t>
+  </si>
+  <si>
+    <t>ls la</t>
+  </si>
+  <si>
+    <t>Navegação web : pesquisa no GitHub por HideFiles.</t>
+  </si>
+  <si>
+    <t>places.sqlite</t>
+  </si>
+  <si>
+    <t>irc_logs</t>
+  </si>
+  <si>
+    <t>Abertura de ficheiros da pasta ZYRA: FinancialReport.pdf, Invoice.pdf, TouristThreads.png, wpp.png.</t>
+  </si>
+  <si>
+    <t>Execução periódica de CRON: sh ~/backups/backup.sh</t>
+  </si>
+  <si>
+    <t>Conversas IRC (#thebasement) : planeamento contra ZYRA; procura de HideFiles</t>
+  </si>
+  <si>
+    <t>syslog (CRON)</t>
+  </si>
+  <si>
+    <t>Email (ProtonMail) alerta sobre fraude associada a Futuro Inteligente.</t>
+  </si>
+  <si>
+    <t>email dump</t>
+  </si>
+  <si>
+    <t>Criação de deploy.sh (script malicioso).</t>
+  </si>
+  <si>
+    <t>~/scripts/deploy.sh</t>
+  </si>
+  <si>
+    <t>bash history</t>
+  </si>
+  <si>
+    <t>USB desmontado/removido.</t>
+  </si>
+  <si>
+    <t>Shutdown do sistema</t>
+  </si>
+  <si>
+    <t>sudo apt install secure-delete</t>
+  </si>
+  <si>
+    <t>Portugal Smart Cities Summit 2025 (turismodeportugal.pt).</t>
+  </si>
+  <si>
+    <t>srm e apagar evidências.</t>
+  </si>
+  <si>
+    <t>Blog Barracuda sobre phishing com QR codes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">USB conectado: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intenso Rainbow Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (serial 3D32E2CD), montado em </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/media/johhnymusk/Intenso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Editado o server.js no VS Code (primeira edição)</t>
+  </si>
+  <si>
+    <t>entries.json</t>
+  </si>
+  <si>
+    <t>Git add/commit/push "finally finished"; deployed via deploy.sh.</t>
+  </si>
+  <si>
+    <t>bash history, keystroke log</t>
+  </si>
+  <si>
+    <t>execução ~/scripts/deploy.sh.</t>
+  </si>
+  <si>
+    <t>Teorica_6_2017_2018.pdf &amp;&amp; Teorica_7_2017_2018.pdf</t>
+  </si>
+  <si>
+    <t>esconder artefactos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3108,6 +3295,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3336,56 +3542,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3410,13 +3615,21 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Lab1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3642,20 +3855,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>1004</v>
       </c>
@@ -3669,7 +3882,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3693,385 +3906,547 @@
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="43.2" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="23">
+        <v>45894.731944444444</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1007</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="23">
+        <v>45921.885416666664</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1009</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="22">
+        <v>45921.888680555552</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1009</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="23">
+        <v>45916</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1018</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="23">
+        <v>45921.854861111111</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1017</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="23">
+        <v>45921.851388888892</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1015</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="23">
+        <v>45921.954108796293</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1013</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="23">
+        <v>45923.044444444444</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1024</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="23">
+        <v>45921.875</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>1020</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="22">
+        <v>45921.995138888888</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1022</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="22">
+        <v>45921.911805555559</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1033</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="22">
+        <v>45923.043749999997</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1043</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="22">
+        <v>45923.069444444445</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>1024</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="22">
+        <v>45923.064583333333</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>1005</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="23">
+        <v>45923.055555555555</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>1031</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="23">
+        <v>45923.048611111109</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1029</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="23">
+        <v>45923.06527777778</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1017</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="23">
+        <v>45923.045138888891</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1025</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="23">
+        <v>45923.072222222225</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1024</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="22">
+        <v>45923.068749999999</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>1005</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="22">
+        <v>45923.069444444445</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>1024</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="23">
+        <v>45923.087500000001</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>1015</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="23">
+        <v>45923.111111111109</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1034</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="23">
+        <v>45923.154861111114</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1005</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="23">
+        <v>45923.084027777775</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>1045</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="23">
+        <v>45923.085416666669</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>1034</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="23">
+        <v>45923.072916666664</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>1034</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -4085,7 +4460,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -4099,7 +4474,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -4113,7 +4488,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
@@ -4127,7 +4502,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
@@ -4141,7 +4516,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -4155,7 +4530,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -4169,7 +4544,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -4183,7 +4558,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -4197,21 +4572,19 @@
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="23"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -4225,7 +4598,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
@@ -4239,7 +4612,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -4253,7 +4626,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -4267,7 +4640,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -4281,7 +4654,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
@@ -4295,7 +4668,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -4309,7 +4682,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -4323,7 +4696,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.25" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>51</v>
       </c>
@@ -4337,7 +4710,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>52</v>
       </c>
@@ -4351,7 +4724,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
@@ -4365,7 +4738,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>54</v>
       </c>
@@ -4379,7 +4752,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>55</v>
       </c>
@@ -4393,7 +4766,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
@@ -4407,7 +4780,7 @@
       <c r="I53" s="11"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -4421,7 +4794,7 @@
       <c r="I54" s="11"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4808,7 @@
       <c r="I55" s="11"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
@@ -4449,7 +4822,7 @@
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.25" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
@@ -4463,7 +4836,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>61</v>
       </c>
@@ -4477,7 +4850,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
@@ -4491,7 +4864,7 @@
       <c r="I59" s="11"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>63</v>
       </c>
@@ -4505,7 +4878,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
@@ -4519,7 +4892,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
@@ -4533,7 +4906,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
@@ -4547,7 +4920,7 @@
       <c r="I63" s="11"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>67</v>
       </c>
@@ -4561,7 +4934,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>68</v>
       </c>
@@ -4575,7 +4948,7 @@
       <c r="I65" s="11"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
@@ -4589,7 +4962,7 @@
       <c r="I66" s="11"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>70</v>
       </c>
@@ -4603,7 +4976,7 @@
       <c r="I67" s="11"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>71</v>
       </c>
@@ -4617,7 +4990,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.25" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>72</v>
       </c>
@@ -4631,7 +5004,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.25" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>73</v>
       </c>
@@ -4645,7 +5018,7 @@
       <c r="I70" s="11"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.25" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>74</v>
       </c>
@@ -4659,7 +5032,7 @@
       <c r="I71" s="11"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="14.25" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
@@ -4673,7 +5046,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.25" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>76</v>
       </c>
@@ -4687,7 +5060,7 @@
       <c r="I73" s="11"/>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.25" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
@@ -4701,7 +5074,7 @@
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
@@ -4715,7 +5088,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.25" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>79</v>
       </c>
@@ -4729,7 +5102,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.25" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>80</v>
       </c>
@@ -4743,7 +5116,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.25" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>81</v>
       </c>
@@ -4757,7 +5130,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="12"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>82</v>
       </c>
@@ -4771,7 +5144,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="12"/>
     </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>83</v>
       </c>
@@ -4785,7 +5158,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -4799,7 +5172,7 @@
       <c r="I81" s="11"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -4813,7 +5186,7 @@
       <c r="I82" s="11"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>86</v>
       </c>
@@ -4827,7 +5200,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>87</v>
       </c>
@@ -4841,7 +5214,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>88</v>
       </c>
@@ -4855,7 +5228,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>89</v>
       </c>
@@ -4869,7 +5242,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>90</v>
       </c>
@@ -4883,7 +5256,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>91</v>
       </c>
@@ -4897,7 +5270,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>92</v>
       </c>
@@ -4911,7 +5284,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>93</v>
       </c>
@@ -4925,7 +5298,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
@@ -4939,7 +5312,7 @@
       <c r="I91" s="11"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="14.25" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>95</v>
       </c>
@@ -4953,7 +5326,7 @@
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14.25" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>96</v>
       </c>
@@ -4967,7 +5340,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="14.25" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>97</v>
       </c>
@@ -4981,7 +5354,7 @@
       <c r="I94" s="11"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="14.25" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>98</v>
       </c>
@@ -4995,7 +5368,7 @@
       <c r="I95" s="11"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="14.25" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>99</v>
       </c>
@@ -5009,7 +5382,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="14.25" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>100</v>
       </c>
@@ -5023,7 +5396,7 @@
       <c r="I97" s="11"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="14.25" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>101</v>
       </c>
@@ -5037,7 +5410,7 @@
       <c r="I98" s="11"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="14.25" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>102</v>
       </c>
@@ -5051,7 +5424,7 @@
       <c r="I99" s="11"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="14.25" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>103</v>
       </c>
@@ -5065,7 +5438,7 @@
       <c r="I100" s="11"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="14.25" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>104</v>
       </c>
@@ -5079,7 +5452,7 @@
       <c r="I101" s="11"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="14.25" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>105</v>
       </c>
@@ -5093,7 +5466,7 @@
       <c r="I102" s="11"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="14.25" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>106</v>
       </c>
@@ -5107,7 +5480,7 @@
       <c r="I103" s="11"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="14.25" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>107</v>
       </c>
@@ -5121,7 +5494,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="14.25" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>108</v>
       </c>
@@ -5135,7 +5508,7 @@
       <c r="I105" s="11"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="14.25" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>109</v>
       </c>
@@ -5149,7 +5522,7 @@
       <c r="I106" s="11"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="14.25" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>110</v>
       </c>
@@ -5163,7 +5536,7 @@
       <c r="I107" s="11"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="14.25" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>111</v>
       </c>
@@ -5177,7 +5550,7 @@
       <c r="I108" s="11"/>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="14.25" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
@@ -5191,7 +5564,7 @@
       <c r="I109" s="11"/>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="14.25" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>113</v>
       </c>
@@ -5205,7 +5578,7 @@
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="14.25" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>114</v>
       </c>
@@ -5219,7 +5592,7 @@
       <c r="I111" s="8"/>
       <c r="J111" s="9"/>
     </row>
-    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="14.25" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>115</v>
       </c>
@@ -5233,7 +5606,7 @@
       <c r="I112" s="11"/>
       <c r="J112" s="12"/>
     </row>
-    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="14.25" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>116</v>
       </c>
@@ -5247,7 +5620,7 @@
       <c r="I113" s="11"/>
       <c r="J113" s="12"/>
     </row>
-    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="14.25" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>117</v>
       </c>
@@ -5261,7 +5634,7 @@
       <c r="I114" s="11"/>
       <c r="J114" s="12"/>
     </row>
-    <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="14.25" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>118</v>
       </c>
@@ -5275,7 +5648,7 @@
       <c r="I115" s="11"/>
       <c r="J115" s="12"/>
     </row>
-    <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="14.25" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>119</v>
       </c>
@@ -5289,7 +5662,7 @@
       <c r="I116" s="11"/>
       <c r="J116" s="12"/>
     </row>
-    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="14.25" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>120</v>
       </c>
@@ -5303,7 +5676,7 @@
       <c r="I117" s="11"/>
       <c r="J117" s="12"/>
     </row>
-    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="14.25" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>121</v>
       </c>
@@ -5317,7 +5690,7 @@
       <c r="I118" s="11"/>
       <c r="J118" s="12"/>
     </row>
-    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="14.25" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>122</v>
       </c>
@@ -5331,7 +5704,7 @@
       <c r="I119" s="11"/>
       <c r="J119" s="12"/>
     </row>
-    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="14.25" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>123</v>
       </c>
@@ -5345,7 +5718,7 @@
       <c r="I120" s="11"/>
       <c r="J120" s="12"/>
     </row>
-    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="14.25" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>124</v>
       </c>
@@ -5359,7 +5732,7 @@
       <c r="I121" s="11"/>
       <c r="J121" s="12"/>
     </row>
-    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="14.25" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>125</v>
       </c>
@@ -5373,7 +5746,7 @@
       <c r="I122" s="11"/>
       <c r="J122" s="12"/>
     </row>
-    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="14.25" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>126</v>
       </c>
@@ -5387,7 +5760,7 @@
       <c r="I123" s="11"/>
       <c r="J123" s="12"/>
     </row>
-    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="14.25" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>127</v>
       </c>
@@ -5401,7 +5774,7 @@
       <c r="I124" s="11"/>
       <c r="J124" s="12"/>
     </row>
-    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="14.25" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>128</v>
       </c>
@@ -5415,7 +5788,7 @@
       <c r="I125" s="11"/>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="14.25" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>129</v>
       </c>
@@ -5429,7 +5802,7 @@
       <c r="I126" s="11"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="14.25" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>130</v>
       </c>
@@ -5443,7 +5816,7 @@
       <c r="I127" s="11"/>
       <c r="J127" s="12"/>
     </row>
-    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="14.25" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>131</v>
       </c>
@@ -5457,7 +5830,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
     </row>
-    <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="14.25" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>132</v>
       </c>
@@ -5471,7 +5844,7 @@
       <c r="I129" s="8"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="14.25" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>133</v>
       </c>
@@ -5485,7 +5858,7 @@
       <c r="I130" s="11"/>
       <c r="J130" s="12"/>
     </row>
-    <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="14.25" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
@@ -5499,7 +5872,7 @@
       <c r="I131" s="11"/>
       <c r="J131" s="12"/>
     </row>
-    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="14.25" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>135</v>
       </c>
@@ -5513,7 +5886,7 @@
       <c r="I132" s="11"/>
       <c r="J132" s="12"/>
     </row>
-    <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="14.25" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>136</v>
       </c>
@@ -5527,7 +5900,7 @@
       <c r="I133" s="11"/>
       <c r="J133" s="12"/>
     </row>
-    <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="14.25" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>137</v>
       </c>
@@ -5541,7 +5914,7 @@
       <c r="I134" s="11"/>
       <c r="J134" s="12"/>
     </row>
-    <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="14.25" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>138</v>
       </c>
@@ -5555,7 +5928,7 @@
       <c r="I135" s="11"/>
       <c r="J135" s="12"/>
     </row>
-    <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="14.25" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>139</v>
       </c>
@@ -5569,7 +5942,7 @@
       <c r="I136" s="11"/>
       <c r="J136" s="12"/>
     </row>
-    <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="14.25" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>140</v>
       </c>
@@ -5583,7 +5956,7 @@
       <c r="I137" s="11"/>
       <c r="J137" s="12"/>
     </row>
-    <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="14.25" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>141</v>
       </c>
@@ -5597,7 +5970,7 @@
       <c r="I138" s="11"/>
       <c r="J138" s="12"/>
     </row>
-    <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="14.25" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>142</v>
       </c>
@@ -5611,7 +5984,7 @@
       <c r="I139" s="11"/>
       <c r="J139" s="12"/>
     </row>
-    <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="14.25" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>143</v>
       </c>
@@ -5625,7 +5998,7 @@
       <c r="I140" s="11"/>
       <c r="J140" s="12"/>
     </row>
-    <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="14.25" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>144</v>
       </c>
@@ -5639,7 +6012,7 @@
       <c r="I141" s="11"/>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="14.25" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>145</v>
       </c>
@@ -5653,7 +6026,7 @@
       <c r="I142" s="11"/>
       <c r="J142" s="12"/>
     </row>
-    <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="14.25" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>146</v>
       </c>
@@ -5667,7 +6040,7 @@
       <c r="I143" s="11"/>
       <c r="J143" s="12"/>
     </row>
-    <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="14.25" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>147</v>
       </c>
@@ -5681,7 +6054,7 @@
       <c r="I144" s="11"/>
       <c r="J144" s="12"/>
     </row>
-    <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.25" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>148</v>
       </c>
@@ -5695,7 +6068,7 @@
       <c r="I145" s="11"/>
       <c r="J145" s="12"/>
     </row>
-    <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.25" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>149</v>
       </c>
@@ -5709,7 +6082,7 @@
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="14.25" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>150</v>
       </c>
@@ -5718,7 +6091,7 @@
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="14.25" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>151</v>
       </c>
@@ -5727,7 +6100,7 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="14.25" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>152</v>
       </c>
@@ -5736,7 +6109,7 @@
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="14.25" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>153</v>
       </c>
@@ -5745,7 +6118,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="14.25" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>154</v>
       </c>
@@ -5754,7 +6127,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14.25" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
@@ -5763,7 +6136,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="14.25" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>156</v>
       </c>
@@ -5772,7 +6145,7 @@
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="14.25" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>157</v>
       </c>
@@ -5781,7 +6154,7 @@
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14.25" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>158</v>
       </c>
@@ -5790,7 +6163,7 @@
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="14.25" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>159</v>
       </c>
@@ -5799,7 +6172,7 @@
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="14.25" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>160</v>
       </c>
@@ -5808,7 +6181,7 @@
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="14.25" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>161</v>
       </c>
@@ -5817,7 +6190,7 @@
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="14.25" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>162</v>
       </c>
@@ -5826,7 +6199,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="14.25" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>163</v>
       </c>
@@ -5835,7 +6208,7 @@
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="14.25" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>164</v>
       </c>
@@ -5844,7 +6217,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="14.25" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>165</v>
       </c>
@@ -5853,7 +6226,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="14.25" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>166</v>
       </c>
@@ -5862,7 +6235,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="14.25" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>167</v>
       </c>
@@ -5871,7 +6244,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="14.25" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>168</v>
       </c>
@@ -5880,7 +6253,7 @@
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="14.25" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>169</v>
       </c>
@@ -5889,7 +6262,7 @@
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="14.25" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>170</v>
       </c>
@@ -5898,7 +6271,7 @@
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="14.25" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>171</v>
       </c>
@@ -5907,7 +6280,7 @@
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="14.25" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>172</v>
       </c>
@@ -5916,7 +6289,7 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="14.25" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>173</v>
       </c>
@@ -5925,7 +6298,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="14.25" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>174</v>
       </c>
@@ -5934,7 +6307,7 @@
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="14.25" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>175</v>
       </c>
@@ -5943,7 +6316,7 @@
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="14.25" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>176</v>
       </c>
@@ -5952,7 +6325,7 @@
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="14.25" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>177</v>
       </c>
@@ -5961,7 +6334,7 @@
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="14.25" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>178</v>
       </c>
@@ -5970,7 +6343,7 @@
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="14.25" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
@@ -5979,7 +6352,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="14.25" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>180</v>
       </c>
@@ -5988,7 +6361,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="14.25" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>181</v>
       </c>
@@ -5997,7 +6370,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="14.25" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>182</v>
       </c>
@@ -6006,7 +6379,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="14.25" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>183</v>
       </c>
@@ -6015,7 +6388,7 @@
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="14.25" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>184</v>
       </c>
@@ -6024,7 +6397,7 @@
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="14.25" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>185</v>
       </c>
@@ -6033,7 +6406,7 @@
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="14.25" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>186</v>
       </c>
@@ -6042,7 +6415,7 @@
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="14.25" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>187</v>
       </c>
@@ -6051,7 +6424,7 @@
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="14.25" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>188</v>
       </c>
@@ -6060,7 +6433,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="14.25" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>189</v>
       </c>
@@ -6069,7 +6442,7 @@
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="14.25" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>190</v>
       </c>
@@ -6078,7 +6451,7 @@
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="14.25" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>191</v>
       </c>
@@ -6087,7 +6460,7 @@
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="14.25" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>192</v>
       </c>
@@ -6096,7 +6469,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="14.25" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>193</v>
       </c>
@@ -6105,7 +6478,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="14.25" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>194</v>
       </c>
@@ -6114,7 +6487,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="14.25" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>195</v>
       </c>
@@ -6123,7 +6496,7 @@
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="14.25" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>196</v>
       </c>
@@ -6132,7 +6505,7 @@
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="14.25" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>197</v>
       </c>
@@ -6141,7 +6514,7 @@
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="14.25" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>198</v>
       </c>
@@ -6150,7 +6523,7 @@
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="14.25" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>199</v>
       </c>
@@ -6159,7 +6532,7 @@
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="14.25" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>200</v>
       </c>
@@ -6168,7 +6541,7 @@
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="14.25" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>201</v>
       </c>
@@ -6177,7 +6550,7 @@
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="14.25" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>202</v>
       </c>
@@ -6186,7 +6559,7 @@
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="14.25" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>203</v>
       </c>
@@ -6195,7 +6568,7 @@
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" ht="14.25" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>204</v>
       </c>
@@ -6204,7 +6577,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="14.25" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>205</v>
       </c>
@@ -6213,7 +6586,7 @@
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="14.25" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>206</v>
       </c>
@@ -6222,7 +6595,7 @@
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="14.25" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>207</v>
       </c>
@@ -6231,7 +6604,7 @@
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="14.25" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>208</v>
       </c>
@@ -6240,7 +6613,7 @@
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="14.25" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>209</v>
       </c>
@@ -6249,7 +6622,7 @@
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="14.25" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>210</v>
       </c>
@@ -6258,7 +6631,7 @@
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="14.25" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>211</v>
       </c>
@@ -6267,7 +6640,7 @@
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="14.25" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>212</v>
       </c>
@@ -6276,7 +6649,7 @@
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="14.25" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>213</v>
       </c>
@@ -6285,7 +6658,7 @@
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="14.25" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>214</v>
       </c>
@@ -6294,7 +6667,7 @@
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="14.25" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>215</v>
       </c>
@@ -6303,7 +6676,7 @@
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" ht="14.25" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>216</v>
       </c>
@@ -6312,7 +6685,7 @@
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" ht="14.25" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>217</v>
       </c>
@@ -6321,7 +6694,7 @@
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="14.25" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>218</v>
       </c>
@@ -6330,7 +6703,7 @@
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" ht="14.25" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>219</v>
       </c>
@@ -6339,7 +6712,7 @@
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="14.25" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>220</v>
       </c>
@@ -6348,7 +6721,7 @@
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" ht="14.25" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>221</v>
       </c>
@@ -6357,7 +6730,7 @@
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="14.25" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>222</v>
       </c>
@@ -6366,7 +6739,7 @@
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="14.25" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>223</v>
       </c>
@@ -6375,7 +6748,7 @@
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="14.25" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>224</v>
       </c>
@@ -6384,7 +6757,7 @@
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="14.25" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>225</v>
       </c>
@@ -6393,7 +6766,7 @@
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="14.25" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>226</v>
       </c>
@@ -6402,7 +6775,7 @@
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="14.25" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>227</v>
       </c>
@@ -6411,7 +6784,7 @@
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="14.25" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>228</v>
       </c>
@@ -6420,7 +6793,7 @@
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="14.25" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>229</v>
       </c>
@@ -6429,7 +6802,7 @@
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="14.25" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>230</v>
       </c>
@@ -6438,7 +6811,7 @@
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="14.25" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>231</v>
       </c>
@@ -6447,7 +6820,7 @@
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="14.25" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>232</v>
       </c>
@@ -6456,7 +6829,7 @@
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="14.25" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>233</v>
       </c>
@@ -6465,7 +6838,7 @@
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="14.25" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>234</v>
       </c>
@@ -6474,7 +6847,7 @@
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="14.25" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>235</v>
       </c>
@@ -6483,7 +6856,7 @@
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="14.25" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>236</v>
       </c>
@@ -6492,7 +6865,7 @@
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="14.25" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>237</v>
       </c>
@@ -6501,7 +6874,7 @@
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="14.25" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>238</v>
       </c>
@@ -6510,7 +6883,7 @@
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="14.25" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>239</v>
       </c>
@@ -6519,7 +6892,7 @@
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="14.25" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>240</v>
       </c>
@@ -6528,7 +6901,7 @@
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="14.25" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>241</v>
       </c>
@@ -6537,7 +6910,7 @@
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="14.25" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>242</v>
       </c>
@@ -6546,7 +6919,7 @@
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="14.25" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>243</v>
       </c>
@@ -6555,7 +6928,7 @@
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="14.25" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>244</v>
       </c>
@@ -6564,7 +6937,7 @@
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="14.25" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>245</v>
       </c>
@@ -6573,7 +6946,7 @@
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="14.25" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>246</v>
       </c>
@@ -6582,7 +6955,7 @@
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="14.25" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>247</v>
       </c>
@@ -6591,7 +6964,7 @@
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="14.25" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>248</v>
       </c>
@@ -6600,7 +6973,7 @@
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="14.25" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>249</v>
       </c>
@@ -6609,7 +6982,7 @@
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="14.25" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>250</v>
       </c>
@@ -6618,7 +6991,7 @@
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="14.25" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>251</v>
       </c>
@@ -6627,7 +7000,7 @@
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="14.25" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>252</v>
       </c>
@@ -6636,7 +7009,7 @@
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="14.25" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>253</v>
       </c>
@@ -6645,7 +7018,7 @@
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="14.25" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>254</v>
       </c>
@@ -6654,7 +7027,7 @@
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="14.25" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>255</v>
       </c>
@@ -6663,7 +7036,7 @@
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="14.25" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>256</v>
       </c>
@@ -6672,7 +7045,7 @@
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="14.25" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>257</v>
       </c>
@@ -6681,7 +7054,7 @@
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="14.25" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>258</v>
       </c>
@@ -6690,7 +7063,7 @@
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="14.25" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>259</v>
       </c>
@@ -6699,7 +7072,7 @@
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" ht="14.25" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>260</v>
       </c>
@@ -6708,7 +7081,7 @@
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" ht="14.25" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>261</v>
       </c>
@@ -6717,7 +7090,7 @@
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="14.25" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>262</v>
       </c>
@@ -6726,7 +7099,7 @@
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="14.25" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>263</v>
       </c>
@@ -6735,7 +7108,7 @@
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="14.25" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>264</v>
       </c>
@@ -6744,7 +7117,7 @@
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" ht="14.25" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>265</v>
       </c>
@@ -6753,7 +7126,7 @@
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="14.25" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>266</v>
       </c>
@@ -6762,7 +7135,7 @@
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" ht="14.25" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>267</v>
       </c>
@@ -6771,7 +7144,7 @@
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="14.25" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>268</v>
       </c>
@@ -6780,7 +7153,7 @@
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="14.25" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>269</v>
       </c>
@@ -6789,7 +7162,7 @@
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="14.25" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>270</v>
       </c>
@@ -6798,7 +7171,7 @@
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="14.25" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>271</v>
       </c>
@@ -6807,7 +7180,7 @@
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="14.25" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>272</v>
       </c>
@@ -6816,7 +7189,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" ht="14.25" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>273</v>
       </c>
@@ -6825,7 +7198,7 @@
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="14.25" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>274</v>
       </c>
@@ -6834,7 +7207,7 @@
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" ht="14.25" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>275</v>
       </c>
@@ -6843,7 +7216,7 @@
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" ht="14.25" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>276</v>
       </c>
@@ -6852,7 +7225,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" ht="14.25" customHeight="1">
       <c r="A274" s="4" t="s">
         <v>277</v>
       </c>
@@ -6861,7 +7234,7 @@
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" ht="14.25" customHeight="1">
       <c r="A275" s="4" t="s">
         <v>278</v>
       </c>
@@ -6870,7 +7243,7 @@
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" ht="14.25" customHeight="1">
       <c r="A276" s="4" t="s">
         <v>279</v>
       </c>
@@ -6879,7 +7252,7 @@
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" ht="14.25" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>280</v>
       </c>
@@ -6888,7 +7261,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" ht="14.25" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>281</v>
       </c>
@@ -6897,7 +7270,7 @@
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" ht="14.25" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>282</v>
       </c>
@@ -6906,7 +7279,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="14.25" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>283</v>
       </c>
@@ -6915,7 +7288,7 @@
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="14.25" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>284</v>
       </c>
@@ -6924,7 +7297,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" ht="14.25" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>285</v>
       </c>
@@ -6933,7 +7306,7 @@
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" ht="14.25" customHeight="1">
       <c r="A283" s="4" t="s">
         <v>286</v>
       </c>
@@ -6942,7 +7315,7 @@
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="14.25" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>287</v>
       </c>
@@ -6951,7 +7324,7 @@
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="14.25" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>288</v>
       </c>
@@ -6960,7 +7333,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" ht="14.25" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>289</v>
       </c>
@@ -6969,7 +7342,7 @@
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="14.25" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>290</v>
       </c>
@@ -6978,7 +7351,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" ht="14.25" customHeight="1">
       <c r="A288" s="4" t="s">
         <v>291</v>
       </c>
@@ -6987,7 +7360,7 @@
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="14.25" customHeight="1">
       <c r="A289" s="4" t="s">
         <v>292</v>
       </c>
@@ -6996,7 +7369,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="14.25" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>293</v>
       </c>
@@ -7005,7 +7378,7 @@
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="14.25" customHeight="1">
       <c r="A291" s="4" t="s">
         <v>294</v>
       </c>
@@ -7014,7 +7387,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" ht="14.25" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>295</v>
       </c>
@@ -7023,7 +7396,7 @@
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="14.25" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>296</v>
       </c>
@@ -7032,7 +7405,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="14.25" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>297</v>
       </c>
@@ -7041,7 +7414,7 @@
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="14.25" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>298</v>
       </c>
@@ -7050,7 +7423,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" ht="14.25" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>299</v>
       </c>
@@ -7059,7 +7432,7 @@
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="14.25" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>300</v>
       </c>
@@ -7068,7 +7441,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="14.25" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>301</v>
       </c>
@@ -7077,7 +7450,7 @@
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="14.25" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>302</v>
       </c>
@@ -7086,7 +7459,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="14.25" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>303</v>
       </c>
@@ -7095,7 +7468,7 @@
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="14.25" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>304</v>
       </c>
@@ -7104,7 +7477,7 @@
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" ht="14.25" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>305</v>
       </c>
@@ -7113,7 +7486,7 @@
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="14.25" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>306</v>
       </c>
@@ -7122,7 +7495,7 @@
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" ht="14.25" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>307</v>
       </c>
@@ -7131,7 +7504,7 @@
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" ht="14.25" customHeight="1">
       <c r="A305" s="4" t="s">
         <v>308</v>
       </c>
@@ -7140,7 +7513,7 @@
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="14.25" customHeight="1">
       <c r="A306" s="4" t="s">
         <v>309</v>
       </c>
@@ -7149,7 +7522,7 @@
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="14.25" customHeight="1">
       <c r="A307" s="4" t="s">
         <v>310</v>
       </c>
@@ -7158,7 +7531,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="14.25" customHeight="1">
       <c r="A308" s="4" t="s">
         <v>311</v>
       </c>
@@ -7167,7 +7540,7 @@
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="14.25" customHeight="1">
       <c r="A309" s="4" t="s">
         <v>312</v>
       </c>
@@ -7176,7 +7549,7 @@
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="14.25" customHeight="1">
       <c r="A310" s="4" t="s">
         <v>313</v>
       </c>
@@ -7185,7 +7558,7 @@
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="14.25" customHeight="1">
       <c r="A311" s="4" t="s">
         <v>314</v>
       </c>
@@ -7194,7 +7567,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="14.25" customHeight="1">
       <c r="A312" s="4" t="s">
         <v>315</v>
       </c>
@@ -7203,7 +7576,7 @@
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="14.25" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>316</v>
       </c>
@@ -7212,7 +7585,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="14.25" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>317</v>
       </c>
@@ -7221,7 +7594,7 @@
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="14.25" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>318</v>
       </c>
@@ -7230,7 +7603,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="14.25" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>319</v>
       </c>
@@ -7239,7 +7612,7 @@
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="14.25" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>320</v>
       </c>
@@ -7248,7 +7621,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="14.25" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>321</v>
       </c>
@@ -7257,7 +7630,7 @@
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" ht="14.25" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>322</v>
       </c>
@@ -7266,7 +7639,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="14.25" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>323</v>
       </c>
@@ -7275,7 +7648,7 @@
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" ht="14.25" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>324</v>
       </c>
@@ -7284,7 +7657,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="14.25" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>325</v>
       </c>
@@ -7293,7 +7666,7 @@
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" ht="14.25" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>326</v>
       </c>
@@ -7302,7 +7675,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" ht="14.25" customHeight="1">
       <c r="A324" s="4" t="s">
         <v>327</v>
       </c>
@@ -7311,7 +7684,7 @@
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="14.25" customHeight="1">
       <c r="A325" s="4" t="s">
         <v>328</v>
       </c>
@@ -7320,7 +7693,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" ht="14.25" customHeight="1">
       <c r="A326" s="4" t="s">
         <v>329</v>
       </c>
@@ -7329,7 +7702,7 @@
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="14.25" customHeight="1">
       <c r="A327" s="4" t="s">
         <v>330</v>
       </c>
@@ -7338,7 +7711,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="14.25" customHeight="1">
       <c r="A328" s="4" t="s">
         <v>331</v>
       </c>
@@ -7347,7 +7720,7 @@
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" ht="14.25" customHeight="1">
       <c r="A329" s="4" t="s">
         <v>332</v>
       </c>
@@ -7356,7 +7729,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" ht="14.25" customHeight="1">
       <c r="A330" s="4" t="s">
         <v>333</v>
       </c>
@@ -7365,7 +7738,7 @@
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" ht="14.25" customHeight="1">
       <c r="A331" s="4" t="s">
         <v>334</v>
       </c>
@@ -7374,7 +7747,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="14.25" customHeight="1">
       <c r="A332" s="4" t="s">
         <v>335</v>
       </c>
@@ -7383,7 +7756,7 @@
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" ht="14.25" customHeight="1">
       <c r="A333" s="4" t="s">
         <v>336</v>
       </c>
@@ -7392,7 +7765,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="14.25" customHeight="1">
       <c r="A334" s="4" t="s">
         <v>337</v>
       </c>
@@ -7401,7 +7774,7 @@
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" ht="14.25" customHeight="1">
       <c r="A335" s="4" t="s">
         <v>338</v>
       </c>
@@ -7410,7 +7783,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="14.25" customHeight="1">
       <c r="A336" s="4" t="s">
         <v>339</v>
       </c>
@@ -7419,7 +7792,7 @@
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="14.25" customHeight="1">
       <c r="A337" s="4" t="s">
         <v>340</v>
       </c>
@@ -7428,7 +7801,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="14.25" customHeight="1">
       <c r="A338" s="4" t="s">
         <v>341</v>
       </c>
@@ -7437,7 +7810,7 @@
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="14.25" customHeight="1">
       <c r="A339" s="4" t="s">
         <v>342</v>
       </c>
@@ -7446,7 +7819,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="14.25" customHeight="1">
       <c r="A340" s="4" t="s">
         <v>343</v>
       </c>
@@ -7455,7 +7828,7 @@
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="14.25" customHeight="1">
       <c r="A341" s="4" t="s">
         <v>344</v>
       </c>
@@ -7464,7 +7837,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="14.25" customHeight="1">
       <c r="A342" s="4" t="s">
         <v>345</v>
       </c>
@@ -7473,7 +7846,7 @@
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="14.25" customHeight="1">
       <c r="A343" s="4" t="s">
         <v>346</v>
       </c>
@@ -7482,7 +7855,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
     </row>
-    <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="14.25" customHeight="1">
       <c r="A344" s="4" t="s">
         <v>347</v>
       </c>
@@ -7491,7 +7864,7 @@
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
     </row>
-    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="14.25" customHeight="1">
       <c r="A345" s="4" t="s">
         <v>348</v>
       </c>
@@ -7500,7 +7873,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="14.25" customHeight="1">
       <c r="A346" s="4" t="s">
         <v>349</v>
       </c>
@@ -7509,7 +7882,7 @@
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
     </row>
-    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="14.25" customHeight="1">
       <c r="A347" s="4" t="s">
         <v>350</v>
       </c>
@@ -7518,7 +7891,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="14.25" customHeight="1">
       <c r="A348" s="4" t="s">
         <v>351</v>
       </c>
@@ -7527,7 +7900,7 @@
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
     </row>
-    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="14.25" customHeight="1">
       <c r="A349" s="4" t="s">
         <v>352</v>
       </c>
@@ -7536,7 +7909,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="14.25" customHeight="1">
       <c r="A350" s="4" t="s">
         <v>353</v>
       </c>
@@ -7545,7 +7918,7 @@
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="14.25" customHeight="1">
       <c r="A351" s="4" t="s">
         <v>354</v>
       </c>
@@ -7554,7 +7927,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="14.25" customHeight="1">
       <c r="A352" s="4" t="s">
         <v>355</v>
       </c>
@@ -7563,7 +7936,7 @@
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="14.25" customHeight="1">
       <c r="A353" s="4" t="s">
         <v>356</v>
       </c>
@@ -7572,7 +7945,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="14.25" customHeight="1">
       <c r="A354" s="4" t="s">
         <v>357</v>
       </c>
@@ -7581,7 +7954,7 @@
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="14.25" customHeight="1">
       <c r="A355" s="4" t="s">
         <v>358</v>
       </c>
@@ -7590,7 +7963,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
     </row>
-    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="14.25" customHeight="1">
       <c r="A356" s="4" t="s">
         <v>359</v>
       </c>
@@ -7599,7 +7972,7 @@
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
     </row>
-    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="14.25" customHeight="1">
       <c r="A357" s="4" t="s">
         <v>360</v>
       </c>
@@ -7608,7 +7981,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="14.25" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>361</v>
       </c>
@@ -7617,7 +7990,7 @@
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
     </row>
-    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="14.25" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>362</v>
       </c>
@@ -7626,7 +7999,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
     </row>
-    <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="14.25" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>363</v>
       </c>
@@ -7635,7 +8008,7 @@
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
     </row>
-    <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="14.25" customHeight="1">
       <c r="A361" s="4" t="s">
         <v>364</v>
       </c>
@@ -7644,7 +8017,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
     </row>
-    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="14.25" customHeight="1">
       <c r="A362" s="4" t="s">
         <v>365</v>
       </c>
@@ -7653,7 +8026,7 @@
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
     </row>
-    <row r="363" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="14.25" customHeight="1">
       <c r="A363" s="4" t="s">
         <v>366</v>
       </c>
@@ -7662,7 +8035,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
     </row>
-    <row r="364" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="14.25" customHeight="1">
       <c r="A364" s="4" t="s">
         <v>367</v>
       </c>
@@ -7671,7 +8044,7 @@
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
     </row>
-    <row r="365" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="14.25" customHeight="1">
       <c r="A365" s="4" t="s">
         <v>368</v>
       </c>
@@ -7680,7 +8053,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
     </row>
-    <row r="366" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="14.25" customHeight="1">
       <c r="A366" s="4" t="s">
         <v>369</v>
       </c>
@@ -7689,7 +8062,7 @@
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="14.25" customHeight="1">
       <c r="A367" s="4" t="s">
         <v>370</v>
       </c>
@@ -7698,7 +8071,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="14.25" customHeight="1">
       <c r="A368" s="4" t="s">
         <v>371</v>
       </c>
@@ -7707,7 +8080,7 @@
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
     </row>
-    <row r="369" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="14.25" customHeight="1">
       <c r="A369" s="4" t="s">
         <v>372</v>
       </c>
@@ -7716,7 +8089,7 @@
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
     </row>
-    <row r="370" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="14.25" customHeight="1">
       <c r="A370" s="4" t="s">
         <v>373</v>
       </c>
@@ -7725,7 +8098,7 @@
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" ht="14.25" customHeight="1">
       <c r="A371" s="4" t="s">
         <v>374</v>
       </c>
@@ -7734,7 +8107,7 @@
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" ht="14.25" customHeight="1">
       <c r="A372" s="4" t="s">
         <v>375</v>
       </c>
@@ -7743,7 +8116,7 @@
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" ht="14.25" customHeight="1">
       <c r="A373" s="4" t="s">
         <v>376</v>
       </c>
@@ -7752,7 +8125,7 @@
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" ht="14.25" customHeight="1">
       <c r="A374" s="4" t="s">
         <v>377</v>
       </c>
@@ -7761,7 +8134,7 @@
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="14.25" customHeight="1">
       <c r="A375" s="4" t="s">
         <v>378</v>
       </c>
@@ -7770,7 +8143,7 @@
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
     </row>
-    <row r="376" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" ht="14.25" customHeight="1">
       <c r="A376" s="4" t="s">
         <v>379</v>
       </c>
@@ -7779,7 +8152,7 @@
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" ht="14.25" customHeight="1">
       <c r="A377" s="4" t="s">
         <v>380</v>
       </c>
@@ -7788,7 +8161,7 @@
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" ht="14.25" customHeight="1">
       <c r="A378" s="4" t="s">
         <v>381</v>
       </c>
@@ -7797,7 +8170,7 @@
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
     </row>
-    <row r="379" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" ht="14.25" customHeight="1">
       <c r="A379" s="4" t="s">
         <v>382</v>
       </c>
@@ -7806,7 +8179,7 @@
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" ht="14.25" customHeight="1">
       <c r="A380" s="4" t="s">
         <v>383</v>
       </c>
@@ -7815,7 +8188,7 @@
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" ht="14.25" customHeight="1">
       <c r="A381" s="4" t="s">
         <v>384</v>
       </c>
@@ -7824,7 +8197,7 @@
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" ht="14.25" customHeight="1">
       <c r="A382" s="4" t="s">
         <v>385</v>
       </c>
@@ -7833,7 +8206,7 @@
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="14.25" customHeight="1">
       <c r="A383" s="4" t="s">
         <v>386</v>
       </c>
@@ -7842,7 +8215,7 @@
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" ht="14.25" customHeight="1">
       <c r="A384" s="4" t="s">
         <v>387</v>
       </c>
@@ -7851,7 +8224,7 @@
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="14.25" customHeight="1">
       <c r="A385" s="4" t="s">
         <v>388</v>
       </c>
@@ -7860,7 +8233,7 @@
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="14.25" customHeight="1">
       <c r="A386" s="4" t="s">
         <v>389</v>
       </c>
@@ -7869,7 +8242,7 @@
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="14.25" customHeight="1">
       <c r="A387" s="4" t="s">
         <v>390</v>
       </c>
@@ -7878,7 +8251,7 @@
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="14.25" customHeight="1">
       <c r="A388" s="4" t="s">
         <v>391</v>
       </c>
@@ -7887,7 +8260,7 @@
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="14.25" customHeight="1">
       <c r="A389" s="4" t="s">
         <v>392</v>
       </c>
@@ -7896,7 +8269,7 @@
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="14.25" customHeight="1">
       <c r="A390" s="4" t="s">
         <v>393</v>
       </c>
@@ -7905,7 +8278,7 @@
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="14.25" customHeight="1">
       <c r="A391" s="4" t="s">
         <v>394</v>
       </c>
@@ -7914,7 +8287,7 @@
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="14.25" customHeight="1">
       <c r="A392" s="4" t="s">
         <v>395</v>
       </c>
@@ -7923,7 +8296,7 @@
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="14.25" customHeight="1">
       <c r="A393" s="4" t="s">
         <v>396</v>
       </c>
@@ -7932,7 +8305,7 @@
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="14.25" customHeight="1">
       <c r="A394" s="4" t="s">
         <v>397</v>
       </c>
@@ -7941,7 +8314,7 @@
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="14.25" customHeight="1">
       <c r="A395" s="4" t="s">
         <v>398</v>
       </c>
@@ -7950,7 +8323,7 @@
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="14.25" customHeight="1">
       <c r="A396" s="4" t="s">
         <v>399</v>
       </c>
@@ -7959,7 +8332,7 @@
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="14.25" customHeight="1">
       <c r="A397" s="4" t="s">
         <v>400</v>
       </c>
@@ -7968,7 +8341,7 @@
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" ht="14.25" customHeight="1">
       <c r="A398" s="4" t="s">
         <v>401</v>
       </c>
@@ -7977,7 +8350,7 @@
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="14.25" customHeight="1">
       <c r="A399" s="4" t="s">
         <v>402</v>
       </c>
@@ -7986,7 +8359,7 @@
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="14.25" customHeight="1">
       <c r="A400" s="4" t="s">
         <v>403</v>
       </c>
@@ -7995,7 +8368,7 @@
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="14.25" customHeight="1">
       <c r="A401" s="4" t="s">
         <v>404</v>
       </c>
@@ -8004,7 +8377,7 @@
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="14.25" customHeight="1">
       <c r="A402" s="4" t="s">
         <v>405</v>
       </c>
@@ -8013,7 +8386,7 @@
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
     </row>
-    <row r="403" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="14.25" customHeight="1">
       <c r="A403" s="4" t="s">
         <v>406</v>
       </c>
@@ -8022,7 +8395,7 @@
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="14.25" customHeight="1">
       <c r="A404" s="4" t="s">
         <v>407</v>
       </c>
@@ -8031,7 +8404,7 @@
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
     </row>
-    <row r="405" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="14.25" customHeight="1">
       <c r="A405" s="4" t="s">
         <v>408</v>
       </c>
@@ -8040,7 +8413,7 @@
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="14.25" customHeight="1">
       <c r="A406" s="4" t="s">
         <v>409</v>
       </c>
@@ -8049,7 +8422,7 @@
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="14.25" customHeight="1">
       <c r="A407" s="4" t="s">
         <v>410</v>
       </c>
@@ -8058,7 +8431,7 @@
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
     </row>
-    <row r="408" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="14.25" customHeight="1">
       <c r="A408" s="4" t="s">
         <v>411</v>
       </c>
@@ -8067,7 +8440,7 @@
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
     </row>
-    <row r="409" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="14.25" customHeight="1">
       <c r="A409" s="4" t="s">
         <v>412</v>
       </c>
@@ -8076,7 +8449,7 @@
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
     </row>
-    <row r="410" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="14.25" customHeight="1">
       <c r="A410" s="4" t="s">
         <v>413</v>
       </c>
@@ -8085,7 +8458,7 @@
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="14.25" customHeight="1">
       <c r="A411" s="4" t="s">
         <v>414</v>
       </c>
@@ -8094,7 +8467,7 @@
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
     </row>
-    <row r="412" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="14.25" customHeight="1">
       <c r="A412" s="4" t="s">
         <v>415</v>
       </c>
@@ -8103,7 +8476,7 @@
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="14.25" customHeight="1">
       <c r="A413" s="4" t="s">
         <v>416</v>
       </c>
@@ -8112,7 +8485,7 @@
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="14.25" customHeight="1">
       <c r="A414" s="4" t="s">
         <v>417</v>
       </c>
@@ -8121,7 +8494,7 @@
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
     </row>
-    <row r="415" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="14.25" customHeight="1">
       <c r="A415" s="4" t="s">
         <v>418</v>
       </c>
@@ -8130,7 +8503,7 @@
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="14.25" customHeight="1">
       <c r="A416" s="4" t="s">
         <v>419</v>
       </c>
@@ -8139,7 +8512,7 @@
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
     </row>
-    <row r="417" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" ht="14.25" customHeight="1">
       <c r="A417" s="4" t="s">
         <v>420</v>
       </c>
@@ -8148,7 +8521,7 @@
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="14.25" customHeight="1">
       <c r="A418" s="4" t="s">
         <v>421</v>
       </c>
@@ -8157,7 +8530,7 @@
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
     </row>
-    <row r="419" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="14.25" customHeight="1">
       <c r="A419" s="4" t="s">
         <v>422</v>
       </c>
@@ -8166,7 +8539,7 @@
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
     </row>
-    <row r="420" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" ht="14.25" customHeight="1">
       <c r="A420" s="4" t="s">
         <v>423</v>
       </c>
@@ -8175,7 +8548,7 @@
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" ht="14.25" customHeight="1">
       <c r="A421" s="4" t="s">
         <v>424</v>
       </c>
@@ -8184,7 +8557,7 @@
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
     </row>
-    <row r="422" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" ht="14.25" customHeight="1">
       <c r="A422" s="4" t="s">
         <v>425</v>
       </c>
@@ -8193,7 +8566,7 @@
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
     </row>
-    <row r="423" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" ht="14.25" customHeight="1">
       <c r="A423" s="4" t="s">
         <v>426</v>
       </c>
@@ -8202,7 +8575,7 @@
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" ht="14.25" customHeight="1">
       <c r="A424" s="4" t="s">
         <v>427</v>
       </c>
@@ -8211,7 +8584,7 @@
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
     </row>
-    <row r="425" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" ht="14.25" customHeight="1">
       <c r="A425" s="4" t="s">
         <v>428</v>
       </c>
@@ -8220,7 +8593,7 @@
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
     </row>
-    <row r="426" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" ht="14.25" customHeight="1">
       <c r="A426" s="4" t="s">
         <v>429</v>
       </c>
@@ -8229,7 +8602,7 @@
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
     </row>
-    <row r="427" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" ht="14.25" customHeight="1">
       <c r="A427" s="4" t="s">
         <v>430</v>
       </c>
@@ -8238,7 +8611,7 @@
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
     </row>
-    <row r="428" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" ht="14.25" customHeight="1">
       <c r="A428" s="4" t="s">
         <v>431</v>
       </c>
@@ -8247,7 +8620,7 @@
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
     </row>
-    <row r="429" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" ht="14.25" customHeight="1">
       <c r="A429" s="4" t="s">
         <v>432</v>
       </c>
@@ -8256,7 +8629,7 @@
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
     </row>
-    <row r="430" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" ht="14.25" customHeight="1">
       <c r="A430" s="4" t="s">
         <v>433</v>
       </c>
@@ -8265,7 +8638,7 @@
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
     </row>
-    <row r="431" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" ht="14.25" customHeight="1">
       <c r="A431" s="4" t="s">
         <v>434</v>
       </c>
@@ -8274,7 +8647,7 @@
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" ht="14.25" customHeight="1">
       <c r="A432" s="4" t="s">
         <v>435</v>
       </c>
@@ -8283,7 +8656,7 @@
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" ht="14.25" customHeight="1">
       <c r="A433" s="4" t="s">
         <v>436</v>
       </c>
@@ -8292,7 +8665,7 @@
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" ht="14.25" customHeight="1">
       <c r="A434" s="4" t="s">
         <v>437</v>
       </c>
@@ -8301,7 +8674,7 @@
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" ht="14.25" customHeight="1">
       <c r="A435" s="4" t="s">
         <v>438</v>
       </c>
@@ -8310,7 +8683,7 @@
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" ht="14.25" customHeight="1">
       <c r="A436" s="4" t="s">
         <v>439</v>
       </c>
@@ -8319,7 +8692,7 @@
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" ht="14.25" customHeight="1">
       <c r="A437" s="4" t="s">
         <v>440</v>
       </c>
@@ -8328,7 +8701,7 @@
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" ht="14.25" customHeight="1">
       <c r="A438" s="4" t="s">
         <v>441</v>
       </c>
@@ -8337,7 +8710,7 @@
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
     </row>
-    <row r="439" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" ht="14.25" customHeight="1">
       <c r="A439" s="4" t="s">
         <v>442</v>
       </c>
@@ -8346,7 +8719,7 @@
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
     </row>
-    <row r="440" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" ht="14.25" customHeight="1">
       <c r="A440" s="4" t="s">
         <v>443</v>
       </c>
@@ -8355,7 +8728,7 @@
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" ht="14.25" customHeight="1">
       <c r="A441" s="4" t="s">
         <v>444</v>
       </c>
@@ -8364,7 +8737,7 @@
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
     </row>
-    <row r="442" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" ht="14.25" customHeight="1">
       <c r="A442" s="4" t="s">
         <v>445</v>
       </c>
@@ -8373,7 +8746,7 @@
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
     </row>
-    <row r="443" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" ht="14.25" customHeight="1">
       <c r="A443" s="4" t="s">
         <v>446</v>
       </c>
@@ -8382,7 +8755,7 @@
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
     </row>
-    <row r="444" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" ht="14.25" customHeight="1">
       <c r="A444" s="4" t="s">
         <v>447</v>
       </c>
@@ -8391,7 +8764,7 @@
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
     </row>
-    <row r="445" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" ht="14.25" customHeight="1">
       <c r="A445" s="4" t="s">
         <v>448</v>
       </c>
@@ -8400,7 +8773,7 @@
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
     </row>
-    <row r="446" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" ht="14.25" customHeight="1">
       <c r="A446" s="4" t="s">
         <v>449</v>
       </c>
@@ -8409,7 +8782,7 @@
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
     </row>
-    <row r="447" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" ht="14.25" customHeight="1">
       <c r="A447" s="4" t="s">
         <v>450</v>
       </c>
@@ -8418,7 +8791,7 @@
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
     </row>
-    <row r="448" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" ht="14.25" customHeight="1">
       <c r="A448" s="4" t="s">
         <v>451</v>
       </c>
@@ -8427,7 +8800,7 @@
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
     </row>
-    <row r="449" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="14.25" customHeight="1">
       <c r="A449" s="4" t="s">
         <v>452</v>
       </c>
@@ -8436,7 +8809,7 @@
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
     </row>
-    <row r="450" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" ht="14.25" customHeight="1">
       <c r="A450" s="4" t="s">
         <v>453</v>
       </c>
@@ -8445,7 +8818,7 @@
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
     </row>
-    <row r="451" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" ht="14.25" customHeight="1">
       <c r="A451" s="4" t="s">
         <v>454</v>
       </c>
@@ -8454,7 +8827,7 @@
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
     </row>
-    <row r="452" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" ht="14.25" customHeight="1">
       <c r="A452" s="4" t="s">
         <v>455</v>
       </c>
@@ -8463,7 +8836,7 @@
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
     </row>
-    <row r="453" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="14.25" customHeight="1">
       <c r="A453" s="4" t="s">
         <v>456</v>
       </c>
@@ -8472,7 +8845,7 @@
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
     </row>
-    <row r="454" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="14.25" customHeight="1">
       <c r="A454" s="4" t="s">
         <v>457</v>
       </c>
@@ -8481,7 +8854,7 @@
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
     </row>
-    <row r="455" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" ht="14.25" customHeight="1">
       <c r="A455" s="4" t="s">
         <v>458</v>
       </c>
@@ -8490,7 +8863,7 @@
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="14.25" customHeight="1">
       <c r="A456" s="4" t="s">
         <v>459</v>
       </c>
@@ -8499,7 +8872,7 @@
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
     </row>
-    <row r="457" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" ht="14.25" customHeight="1">
       <c r="A457" s="4" t="s">
         <v>460</v>
       </c>
@@ -8508,7 +8881,7 @@
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
     </row>
-    <row r="458" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="14.25" customHeight="1">
       <c r="A458" s="4" t="s">
         <v>461</v>
       </c>
@@ -8517,7 +8890,7 @@
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
     </row>
-    <row r="459" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="14.25" customHeight="1">
       <c r="A459" s="4" t="s">
         <v>462</v>
       </c>
@@ -8526,7 +8899,7 @@
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
     </row>
-    <row r="460" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" ht="14.25" customHeight="1">
       <c r="A460" s="4" t="s">
         <v>463</v>
       </c>
@@ -8535,7 +8908,7 @@
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
     </row>
-    <row r="461" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" ht="14.25" customHeight="1">
       <c r="A461" s="4" t="s">
         <v>464</v>
       </c>
@@ -8544,7 +8917,7 @@
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
     </row>
-    <row r="462" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="14.25" customHeight="1">
       <c r="A462" s="4" t="s">
         <v>465</v>
       </c>
@@ -8553,7 +8926,7 @@
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
     </row>
-    <row r="463" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" ht="14.25" customHeight="1">
       <c r="A463" s="4" t="s">
         <v>466</v>
       </c>
@@ -8562,7 +8935,7 @@
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
     </row>
-    <row r="464" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" ht="14.25" customHeight="1">
       <c r="A464" s="4" t="s">
         <v>467</v>
       </c>
@@ -8571,7 +8944,7 @@
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
     </row>
-    <row r="465" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="14.25" customHeight="1">
       <c r="A465" s="4" t="s">
         <v>468</v>
       </c>
@@ -8580,7 +8953,7 @@
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
     </row>
-    <row r="466" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="14.25" customHeight="1">
       <c r="A466" s="4" t="s">
         <v>469</v>
       </c>
@@ -8589,7 +8962,7 @@
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
     </row>
-    <row r="467" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" ht="14.25" customHeight="1">
       <c r="A467" s="4" t="s">
         <v>470</v>
       </c>
@@ -8598,7 +8971,7 @@
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
     </row>
-    <row r="468" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="14.25" customHeight="1">
       <c r="A468" s="4" t="s">
         <v>471</v>
       </c>
@@ -8607,7 +8980,7 @@
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" ht="14.25" customHeight="1">
       <c r="A469" s="4" t="s">
         <v>472</v>
       </c>
@@ -8616,7 +8989,7 @@
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
     </row>
-    <row r="470" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" ht="14.25" customHeight="1">
       <c r="A470" s="4" t="s">
         <v>473</v>
       </c>
@@ -8625,7 +8998,7 @@
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
     </row>
-    <row r="471" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" ht="14.25" customHeight="1">
       <c r="A471" s="4" t="s">
         <v>474</v>
       </c>
@@ -8634,7 +9007,7 @@
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
     </row>
-    <row r="472" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="14.25" customHeight="1">
       <c r="A472" s="4" t="s">
         <v>475</v>
       </c>
@@ -8643,7 +9016,7 @@
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="14.25" customHeight="1">
       <c r="A473" s="4" t="s">
         <v>476</v>
       </c>
@@ -8652,7 +9025,7 @@
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="14.25" customHeight="1">
       <c r="A474" s="4" t="s">
         <v>477</v>
       </c>
@@ -8661,7 +9034,7 @@
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="14.25" customHeight="1">
       <c r="A475" s="4" t="s">
         <v>478</v>
       </c>
@@ -8670,7 +9043,7 @@
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" ht="14.25" customHeight="1">
       <c r="A476" s="4" t="s">
         <v>479</v>
       </c>
@@ -8679,7 +9052,7 @@
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
     </row>
-    <row r="477" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="14.25" customHeight="1">
       <c r="A477" s="4" t="s">
         <v>480</v>
       </c>
@@ -8688,7 +9061,7 @@
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="14.25" customHeight="1">
       <c r="A478" s="4" t="s">
         <v>481</v>
       </c>
@@ -8697,7 +9070,7 @@
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
     </row>
-    <row r="479" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="14.25" customHeight="1">
       <c r="A479" s="4" t="s">
         <v>482</v>
       </c>
@@ -8706,7 +9079,7 @@
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
     </row>
-    <row r="480" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" ht="14.25" customHeight="1">
       <c r="A480" s="4" t="s">
         <v>483</v>
       </c>
@@ -8715,7 +9088,7 @@
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
     </row>
-    <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" ht="14.25" customHeight="1">
       <c r="A481" s="4" t="s">
         <v>484</v>
       </c>
@@ -8724,7 +9097,7 @@
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
     </row>
-    <row r="482" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" ht="14.25" customHeight="1">
       <c r="A482" s="4" t="s">
         <v>485</v>
       </c>
@@ -8733,7 +9106,7 @@
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
     </row>
-    <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" ht="14.25" customHeight="1">
       <c r="A483" s="4" t="s">
         <v>486</v>
       </c>
@@ -8742,7 +9115,7 @@
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
     </row>
-    <row r="484" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" ht="14.25" customHeight="1">
       <c r="A484" s="4" t="s">
         <v>487</v>
       </c>
@@ -8751,7 +9124,7 @@
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
     </row>
-    <row r="485" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" ht="14.25" customHeight="1">
       <c r="A485" s="4" t="s">
         <v>488</v>
       </c>
@@ -8760,7 +9133,7 @@
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
     </row>
-    <row r="486" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" ht="14.25" customHeight="1">
       <c r="A486" s="4" t="s">
         <v>489</v>
       </c>
@@ -8769,7 +9142,7 @@
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
     </row>
-    <row r="487" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" ht="14.25" customHeight="1">
       <c r="A487" s="4" t="s">
         <v>490</v>
       </c>
@@ -8778,7 +9151,7 @@
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
     </row>
-    <row r="488" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" ht="14.25" customHeight="1">
       <c r="A488" s="4" t="s">
         <v>491</v>
       </c>
@@ -8787,7 +9160,7 @@
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
     </row>
-    <row r="489" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" ht="14.25" customHeight="1">
       <c r="A489" s="4" t="s">
         <v>492</v>
       </c>
@@ -8796,7 +9169,7 @@
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
     </row>
-    <row r="490" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" ht="14.25" customHeight="1">
       <c r="A490" s="4" t="s">
         <v>493</v>
       </c>
@@ -8805,7 +9178,7 @@
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
     </row>
-    <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" ht="14.25" customHeight="1">
       <c r="A491" s="4" t="s">
         <v>494</v>
       </c>
@@ -8814,7 +9187,7 @@
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
     </row>
-    <row r="492" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" ht="14.25" customHeight="1">
       <c r="A492" s="4" t="s">
         <v>495</v>
       </c>
@@ -8823,7 +9196,7 @@
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
     </row>
-    <row r="493" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" ht="14.25" customHeight="1">
       <c r="A493" s="4" t="s">
         <v>496</v>
       </c>
@@ -8832,7 +9205,7 @@
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
     </row>
-    <row r="494" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" ht="14.25" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>497</v>
       </c>
@@ -8841,7 +9214,7 @@
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
     </row>
-    <row r="495" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" ht="14.25" customHeight="1">
       <c r="A495" s="4" t="s">
         <v>498</v>
       </c>
@@ -8850,7 +9223,7 @@
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" ht="14.25" customHeight="1">
       <c r="A496" s="4" t="s">
         <v>499</v>
       </c>
@@ -8859,7 +9232,7 @@
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
     </row>
-    <row r="497" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="14.25" customHeight="1">
       <c r="A497" s="4" t="s">
         <v>500</v>
       </c>
@@ -8868,7 +9241,7 @@
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
     </row>
-    <row r="498" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="14.25" customHeight="1">
       <c r="A498" s="4" t="s">
         <v>501</v>
       </c>
@@ -8877,7 +9250,7 @@
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
     </row>
-    <row r="499" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="14.25" customHeight="1">
       <c r="A499" s="4" t="s">
         <v>502</v>
       </c>
@@ -8886,7 +9259,7 @@
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
     </row>
-    <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="14.25" customHeight="1">
       <c r="A500" s="4" t="s">
         <v>503</v>
       </c>
@@ -8895,7 +9268,7 @@
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
     </row>
-    <row r="501" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="14.25" customHeight="1">
       <c r="A501" s="4" t="s">
         <v>504</v>
       </c>
@@ -8904,7 +9277,7 @@
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
     </row>
-    <row r="502" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="14.25" customHeight="1">
       <c r="A502" s="4" t="s">
         <v>505</v>
       </c>
@@ -8913,7 +9286,7 @@
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="14.25" customHeight="1">
       <c r="A503" s="4" t="s">
         <v>506</v>
       </c>
@@ -8922,7 +9295,7 @@
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="14.25" customHeight="1">
       <c r="A504" s="4" t="s">
         <v>507</v>
       </c>
@@ -8931,7 +9304,7 @@
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="14.25" customHeight="1">
       <c r="A505" s="4" t="s">
         <v>508</v>
       </c>
@@ -8940,7 +9313,7 @@
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="14.25" customHeight="1">
       <c r="A506" s="4" t="s">
         <v>509</v>
       </c>
@@ -8949,7 +9322,7 @@
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="14.25" customHeight="1">
       <c r="A507" s="4" t="s">
         <v>510</v>
       </c>
@@ -8958,7 +9331,7 @@
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="14.25" customHeight="1">
       <c r="A508" s="4" t="s">
         <v>511</v>
       </c>
@@ -8967,7 +9340,7 @@
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="14.25" customHeight="1">
       <c r="A509" s="4" t="s">
         <v>512</v>
       </c>
@@ -8976,7 +9349,7 @@
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="14.25" customHeight="1">
       <c r="A510" s="4" t="s">
         <v>513</v>
       </c>
@@ -8985,7 +9358,7 @@
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="14.25" customHeight="1">
       <c r="A511" s="4" t="s">
         <v>514</v>
       </c>
@@ -8994,7 +9367,7 @@
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="14.25" customHeight="1">
       <c r="A512" s="4" t="s">
         <v>515</v>
       </c>
@@ -9003,7 +9376,7 @@
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" ht="14.25" customHeight="1">
       <c r="A513" s="4" t="s">
         <v>516</v>
       </c>
@@ -9012,7 +9385,7 @@
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
     </row>
-    <row r="514" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" ht="14.25" customHeight="1">
       <c r="A514" s="4" t="s">
         <v>517</v>
       </c>
@@ -9021,7 +9394,7 @@
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
     </row>
-    <row r="515" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" ht="14.25" customHeight="1">
       <c r="A515" s="4" t="s">
         <v>518</v>
       </c>
@@ -9030,7 +9403,7 @@
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
     </row>
-    <row r="516" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" ht="14.25" customHeight="1">
       <c r="A516" s="4" t="s">
         <v>519</v>
       </c>
@@ -9039,7 +9412,7 @@
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
     </row>
-    <row r="517" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" ht="14.25" customHeight="1">
       <c r="A517" s="4" t="s">
         <v>520</v>
       </c>
@@ -9048,7 +9421,7 @@
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
     </row>
-    <row r="518" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" ht="14.25" customHeight="1">
       <c r="A518" s="4" t="s">
         <v>521</v>
       </c>
@@ -9057,7 +9430,7 @@
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
     </row>
-    <row r="519" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" ht="14.25" customHeight="1">
       <c r="A519" s="4" t="s">
         <v>522</v>
       </c>
@@ -9066,7 +9439,7 @@
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
     </row>
-    <row r="520" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" ht="14.25" customHeight="1">
       <c r="A520" s="4" t="s">
         <v>523</v>
       </c>
@@ -9075,7 +9448,7 @@
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
     </row>
-    <row r="521" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" ht="14.25" customHeight="1">
       <c r="A521" s="4" t="s">
         <v>524</v>
       </c>
@@ -9084,7 +9457,7 @@
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
     </row>
-    <row r="522" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" ht="14.25" customHeight="1">
       <c r="A522" s="4" t="s">
         <v>525</v>
       </c>
@@ -9093,7 +9466,7 @@
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
     </row>
-    <row r="523" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" ht="14.25" customHeight="1">
       <c r="A523" s="4" t="s">
         <v>526</v>
       </c>
@@ -9102,7 +9475,7 @@
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
     </row>
-    <row r="524" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" ht="14.25" customHeight="1">
       <c r="A524" s="4" t="s">
         <v>527</v>
       </c>
@@ -9111,7 +9484,7 @@
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
     </row>
-    <row r="525" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" ht="14.25" customHeight="1">
       <c r="A525" s="4" t="s">
         <v>528</v>
       </c>
@@ -9120,7 +9493,7 @@
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
     </row>
-    <row r="526" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" ht="14.25" customHeight="1">
       <c r="A526" s="4" t="s">
         <v>529</v>
       </c>
@@ -9129,7 +9502,7 @@
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
     </row>
-    <row r="527" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" ht="14.25" customHeight="1">
       <c r="A527" s="4" t="s">
         <v>530</v>
       </c>
@@ -9138,7 +9511,7 @@
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" ht="14.25" customHeight="1">
       <c r="A528" s="4" t="s">
         <v>531</v>
       </c>
@@ -9147,7 +9520,7 @@
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
     </row>
-    <row r="529" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" ht="14.25" customHeight="1">
       <c r="A529" s="4" t="s">
         <v>532</v>
       </c>
@@ -9156,7 +9529,7 @@
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
     </row>
-    <row r="530" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" ht="14.25" customHeight="1">
       <c r="A530" s="4" t="s">
         <v>533</v>
       </c>
@@ -9165,7 +9538,7 @@
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
     </row>
-    <row r="531" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" ht="14.25" customHeight="1">
       <c r="A531" s="4" t="s">
         <v>534</v>
       </c>
@@ -9174,7 +9547,7 @@
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
     </row>
-    <row r="532" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" ht="14.25" customHeight="1">
       <c r="A532" s="4" t="s">
         <v>535</v>
       </c>
@@ -9183,7 +9556,7 @@
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
     </row>
-    <row r="533" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" ht="14.25" customHeight="1">
       <c r="A533" s="4" t="s">
         <v>536</v>
       </c>
@@ -9192,7 +9565,7 @@
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
     </row>
-    <row r="534" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" ht="14.25" customHeight="1">
       <c r="A534" s="4" t="s">
         <v>537</v>
       </c>
@@ -9201,7 +9574,7 @@
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
     </row>
-    <row r="535" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" ht="14.25" customHeight="1">
       <c r="A535" s="4" t="s">
         <v>538</v>
       </c>
@@ -9210,7 +9583,7 @@
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" ht="14.25" customHeight="1">
       <c r="A536" s="4" t="s">
         <v>539</v>
       </c>
@@ -9219,7 +9592,7 @@
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
     </row>
-    <row r="537" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" ht="14.25" customHeight="1">
       <c r="A537" s="4" t="s">
         <v>540</v>
       </c>
@@ -9228,7 +9601,7 @@
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
     </row>
-    <row r="538" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" ht="14.25" customHeight="1">
       <c r="A538" s="4" t="s">
         <v>541</v>
       </c>
@@ -9237,7 +9610,7 @@
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
     </row>
-    <row r="539" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" ht="14.25" customHeight="1">
       <c r="A539" s="4" t="s">
         <v>542</v>
       </c>
@@ -9246,7 +9619,7 @@
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" ht="14.25" customHeight="1">
       <c r="A540" s="4" t="s">
         <v>543</v>
       </c>
@@ -9255,7 +9628,7 @@
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" ht="14.25" customHeight="1">
       <c r="A541" s="4" t="s">
         <v>544</v>
       </c>
@@ -9264,7 +9637,7 @@
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" ht="14.25" customHeight="1">
       <c r="A542" s="4" t="s">
         <v>545</v>
       </c>
@@ -9273,7 +9646,7 @@
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" ht="14.25" customHeight="1">
       <c r="A543" s="4" t="s">
         <v>546</v>
       </c>
@@ -9282,7 +9655,7 @@
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" ht="14.25" customHeight="1">
       <c r="A544" s="4" t="s">
         <v>547</v>
       </c>
@@ -9291,7 +9664,7 @@
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
     </row>
-    <row r="545" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" ht="14.25" customHeight="1">
       <c r="A545" s="4" t="s">
         <v>548</v>
       </c>
@@ -9300,7 +9673,7 @@
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
     </row>
-    <row r="546" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" ht="14.25" customHeight="1">
       <c r="A546" s="4" t="s">
         <v>549</v>
       </c>
@@ -9309,7 +9682,7 @@
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
     </row>
-    <row r="547" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" ht="14.25" customHeight="1">
       <c r="A547" s="4" t="s">
         <v>550</v>
       </c>
@@ -9318,7 +9691,7 @@
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
     </row>
-    <row r="548" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" ht="14.25" customHeight="1">
       <c r="A548" s="4" t="s">
         <v>551</v>
       </c>
@@ -9327,7 +9700,7 @@
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
     </row>
-    <row r="549" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" ht="14.25" customHeight="1">
       <c r="A549" s="4" t="s">
         <v>552</v>
       </c>
@@ -9336,7 +9709,7 @@
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
     </row>
-    <row r="550" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" ht="14.25" customHeight="1">
       <c r="A550" s="4" t="s">
         <v>553</v>
       </c>
@@ -9345,7 +9718,7 @@
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
     </row>
-    <row r="551" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" ht="14.25" customHeight="1">
       <c r="A551" s="4" t="s">
         <v>554</v>
       </c>
@@ -9354,7 +9727,7 @@
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
     </row>
-    <row r="552" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" ht="14.25" customHeight="1">
       <c r="A552" s="4" t="s">
         <v>555</v>
       </c>
@@ -9363,7 +9736,7 @@
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
     </row>
-    <row r="553" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" ht="14.25" customHeight="1">
       <c r="A553" s="4" t="s">
         <v>556</v>
       </c>
@@ -9372,7 +9745,7 @@
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
     </row>
-    <row r="554" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" ht="14.25" customHeight="1">
       <c r="A554" s="4" t="s">
         <v>557</v>
       </c>
@@ -9381,7 +9754,7 @@
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" ht="14.25" customHeight="1">
       <c r="A555" s="4" t="s">
         <v>558</v>
       </c>
@@ -9390,7 +9763,7 @@
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" ht="14.25" customHeight="1">
       <c r="A556" s="4" t="s">
         <v>559</v>
       </c>
@@ -9399,7 +9772,7 @@
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" ht="14.25" customHeight="1">
       <c r="A557" s="4" t="s">
         <v>560</v>
       </c>
@@ -9408,7 +9781,7 @@
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" ht="14.25" customHeight="1">
       <c r="A558" s="4" t="s">
         <v>561</v>
       </c>
@@ -9417,7 +9790,7 @@
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" ht="14.25" customHeight="1">
       <c r="A559" s="4" t="s">
         <v>562</v>
       </c>
@@ -9426,7 +9799,7 @@
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" ht="14.25" customHeight="1">
       <c r="A560" s="4" t="s">
         <v>563</v>
       </c>
@@ -9435,7 +9808,7 @@
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" ht="14.25" customHeight="1">
       <c r="A561" s="4" t="s">
         <v>564</v>
       </c>
@@ -9444,7 +9817,7 @@
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" ht="14.25" customHeight="1">
       <c r="A562" s="4" t="s">
         <v>565</v>
       </c>
@@ -9453,7 +9826,7 @@
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" ht="14.25" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>566</v>
       </c>
@@ -9462,7 +9835,7 @@
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" ht="14.25" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>567</v>
       </c>
@@ -9471,7 +9844,7 @@
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" ht="14.25" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>568</v>
       </c>
@@ -9480,7 +9853,7 @@
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" ht="14.25" customHeight="1">
       <c r="A566" s="4" t="s">
         <v>569</v>
       </c>
@@ -9489,7 +9862,7 @@
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" ht="14.25" customHeight="1">
       <c r="A567" s="4" t="s">
         <v>570</v>
       </c>
@@ -9498,7 +9871,7 @@
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" ht="14.25" customHeight="1">
       <c r="A568" s="4" t="s">
         <v>571</v>
       </c>
@@ -9507,7 +9880,7 @@
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" ht="14.25" customHeight="1">
       <c r="A569" s="4" t="s">
         <v>572</v>
       </c>
@@ -9516,7 +9889,7 @@
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" ht="14.25" customHeight="1">
       <c r="A570" s="4" t="s">
         <v>573</v>
       </c>
@@ -9525,7 +9898,7 @@
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" ht="14.25" customHeight="1">
       <c r="A571" s="4" t="s">
         <v>574</v>
       </c>
@@ -9534,7 +9907,7 @@
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" ht="14.25" customHeight="1">
       <c r="A572" s="4" t="s">
         <v>575</v>
       </c>
@@ -9543,7 +9916,7 @@
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" ht="14.25" customHeight="1">
       <c r="A573" s="4" t="s">
         <v>576</v>
       </c>
@@ -9552,7 +9925,7 @@
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" ht="14.25" customHeight="1">
       <c r="A574" s="4" t="s">
         <v>577</v>
       </c>
@@ -9561,7 +9934,7 @@
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" ht="14.25" customHeight="1">
       <c r="A575" s="4" t="s">
         <v>578</v>
       </c>
@@ -9570,7 +9943,7 @@
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
     </row>
-    <row r="576" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" ht="14.25" customHeight="1">
       <c r="A576" s="4" t="s">
         <v>579</v>
       </c>
@@ -9579,7 +9952,7 @@
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
     </row>
-    <row r="577" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" ht="14.25" customHeight="1">
       <c r="A577" s="4" t="s">
         <v>580</v>
       </c>
@@ -9588,7 +9961,7 @@
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
     </row>
-    <row r="578" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" ht="14.25" customHeight="1">
       <c r="A578" s="4" t="s">
         <v>581</v>
       </c>
@@ -9597,7 +9970,7 @@
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
     </row>
-    <row r="579" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" ht="14.25" customHeight="1">
       <c r="A579" s="4" t="s">
         <v>582</v>
       </c>
@@ -9606,7 +9979,7 @@
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
     </row>
-    <row r="580" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" ht="14.25" customHeight="1">
       <c r="A580" s="4" t="s">
         <v>583</v>
       </c>
@@ -9615,7 +9988,7 @@
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
     </row>
-    <row r="581" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" ht="14.25" customHeight="1">
       <c r="A581" s="4" t="s">
         <v>584</v>
       </c>
@@ -9624,7 +9997,7 @@
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
     </row>
-    <row r="582" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" ht="14.25" customHeight="1">
       <c r="A582" s="4" t="s">
         <v>585</v>
       </c>
@@ -9633,7 +10006,7 @@
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
     </row>
-    <row r="583" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" ht="14.25" customHeight="1">
       <c r="A583" s="4" t="s">
         <v>586</v>
       </c>
@@ -9642,7 +10015,7 @@
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
     </row>
-    <row r="584" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" ht="14.25" customHeight="1">
       <c r="A584" s="4" t="s">
         <v>587</v>
       </c>
@@ -9651,7 +10024,7 @@
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
     </row>
-    <row r="585" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" ht="14.25" customHeight="1">
       <c r="A585" s="4" t="s">
         <v>588</v>
       </c>
@@ -9660,7 +10033,7 @@
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
     </row>
-    <row r="586" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" ht="14.25" customHeight="1">
       <c r="A586" s="4" t="s">
         <v>589</v>
       </c>
@@ -9669,7 +10042,7 @@
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
     </row>
-    <row r="587" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" ht="14.25" customHeight="1">
       <c r="A587" s="4" t="s">
         <v>590</v>
       </c>
@@ -9678,7 +10051,7 @@
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
     </row>
-    <row r="588" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" ht="14.25" customHeight="1">
       <c r="A588" s="4" t="s">
         <v>591</v>
       </c>
@@ -9687,7 +10060,7 @@
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
     </row>
-    <row r="589" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" ht="14.25" customHeight="1">
       <c r="A589" s="4" t="s">
         <v>592</v>
       </c>
@@ -9696,7 +10069,7 @@
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
     </row>
-    <row r="590" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" ht="14.25" customHeight="1">
       <c r="A590" s="4" t="s">
         <v>593</v>
       </c>
@@ -9705,7 +10078,7 @@
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
     </row>
-    <row r="591" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" ht="14.25" customHeight="1">
       <c r="A591" s="4" t="s">
         <v>594</v>
       </c>
@@ -9714,7 +10087,7 @@
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
     </row>
-    <row r="592" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" ht="14.25" customHeight="1">
       <c r="A592" s="4" t="s">
         <v>595</v>
       </c>
@@ -9723,7 +10096,7 @@
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
     </row>
-    <row r="593" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="14.25" customHeight="1">
       <c r="A593" s="4" t="s">
         <v>596</v>
       </c>
@@ -9732,7 +10105,7 @@
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
     </row>
-    <row r="594" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="14.25" customHeight="1">
       <c r="A594" s="4" t="s">
         <v>597</v>
       </c>
@@ -9741,7 +10114,7 @@
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
     </row>
-    <row r="595" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="14.25" customHeight="1">
       <c r="A595" s="4" t="s">
         <v>598</v>
       </c>
@@ -9750,7 +10123,7 @@
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
     </row>
-    <row r="596" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="14.25" customHeight="1">
       <c r="A596" s="4" t="s">
         <v>599</v>
       </c>
@@ -9759,7 +10132,7 @@
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
     </row>
-    <row r="597" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="14.25" customHeight="1">
       <c r="A597" s="4" t="s">
         <v>600</v>
       </c>
@@ -9768,7 +10141,7 @@
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
     </row>
-    <row r="598" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="14.25" customHeight="1">
       <c r="A598" s="4" t="s">
         <v>601</v>
       </c>
@@ -9777,7 +10150,7 @@
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
     </row>
-    <row r="599" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="14.25" customHeight="1">
       <c r="A599" s="4" t="s">
         <v>602</v>
       </c>
@@ -9786,7 +10159,7 @@
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
     </row>
-    <row r="600" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="14.25" customHeight="1">
       <c r="A600" s="4" t="s">
         <v>603</v>
       </c>
@@ -9795,7 +10168,7 @@
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
     </row>
-    <row r="601" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="14.25" customHeight="1">
       <c r="A601" s="4" t="s">
         <v>604</v>
       </c>
@@ -9804,7 +10177,7 @@
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
     </row>
-    <row r="602" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="14.25" customHeight="1">
       <c r="A602" s="4" t="s">
         <v>605</v>
       </c>
@@ -9813,7 +10186,7 @@
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
     </row>
-    <row r="603" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="14.25" customHeight="1">
       <c r="A603" s="4" t="s">
         <v>606</v>
       </c>
@@ -9822,7 +10195,7 @@
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
     </row>
-    <row r="604" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="14.25" customHeight="1">
       <c r="A604" s="4" t="s">
         <v>607</v>
       </c>
@@ -9831,7 +10204,7 @@
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
     </row>
-    <row r="605" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="14.25" customHeight="1">
       <c r="A605" s="4" t="s">
         <v>608</v>
       </c>
@@ -9840,7 +10213,7 @@
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
     </row>
-    <row r="606" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="14.25" customHeight="1">
       <c r="A606" s="4" t="s">
         <v>609</v>
       </c>
@@ -9849,7 +10222,7 @@
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
     </row>
-    <row r="607" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="14.25" customHeight="1">
       <c r="A607" s="4" t="s">
         <v>610</v>
       </c>
@@ -9858,7 +10231,7 @@
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
     </row>
-    <row r="608" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="14.25" customHeight="1">
       <c r="A608" s="4" t="s">
         <v>611</v>
       </c>
@@ -9867,7 +10240,7 @@
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
     </row>
-    <row r="609" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" ht="14.25" customHeight="1">
       <c r="A609" s="4" t="s">
         <v>612</v>
       </c>
@@ -9876,7 +10249,7 @@
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
     </row>
-    <row r="610" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" ht="14.25" customHeight="1">
       <c r="A610" s="4" t="s">
         <v>613</v>
       </c>
@@ -9885,7 +10258,7 @@
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
     </row>
-    <row r="611" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" ht="14.25" customHeight="1">
       <c r="A611" s="4" t="s">
         <v>614</v>
       </c>
@@ -9894,7 +10267,7 @@
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
     </row>
-    <row r="612" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" ht="14.25" customHeight="1">
       <c r="A612" s="4" t="s">
         <v>615</v>
       </c>
@@ -9903,7 +10276,7 @@
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
     </row>
-    <row r="613" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" ht="14.25" customHeight="1">
       <c r="A613" s="4" t="s">
         <v>616</v>
       </c>
@@ -9912,7 +10285,7 @@
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
     </row>
-    <row r="614" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" ht="14.25" customHeight="1">
       <c r="A614" s="4" t="s">
         <v>617</v>
       </c>
@@ -9921,7 +10294,7 @@
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
     </row>
-    <row r="615" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" ht="14.25" customHeight="1">
       <c r="A615" s="4" t="s">
         <v>618</v>
       </c>
@@ -9930,7 +10303,7 @@
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
     </row>
-    <row r="616" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" ht="14.25" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>619</v>
       </c>
@@ -9939,7 +10312,7 @@
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
     </row>
-    <row r="617" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" ht="14.25" customHeight="1">
       <c r="A617" s="4" t="s">
         <v>620</v>
       </c>
@@ -9948,7 +10321,7 @@
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
     </row>
-    <row r="618" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" ht="14.25" customHeight="1">
       <c r="A618" s="4" t="s">
         <v>621</v>
       </c>
@@ -9957,7 +10330,7 @@
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
     </row>
-    <row r="619" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" ht="14.25" customHeight="1">
       <c r="A619" s="4" t="s">
         <v>622</v>
       </c>
@@ -9966,7 +10339,7 @@
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
     </row>
-    <row r="620" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" ht="14.25" customHeight="1">
       <c r="A620" s="4" t="s">
         <v>623</v>
       </c>
@@ -9975,7 +10348,7 @@
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
     </row>
-    <row r="621" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" ht="14.25" customHeight="1">
       <c r="A621" s="4" t="s">
         <v>624</v>
       </c>
@@ -9984,7 +10357,7 @@
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
     </row>
-    <row r="622" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" ht="14.25" customHeight="1">
       <c r="A622" s="4" t="s">
         <v>625</v>
       </c>
@@ -9993,7 +10366,7 @@
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
     </row>
-    <row r="623" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" ht="14.25" customHeight="1">
       <c r="A623" s="4" t="s">
         <v>626</v>
       </c>
@@ -10002,7 +10375,7 @@
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
     </row>
-    <row r="624" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" ht="14.25" customHeight="1">
       <c r="A624" s="4" t="s">
         <v>627</v>
       </c>
@@ -10011,7 +10384,7 @@
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
     </row>
-    <row r="625" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" ht="14.25" customHeight="1">
       <c r="A625" s="4" t="s">
         <v>628</v>
       </c>
@@ -10020,7 +10393,7 @@
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
     </row>
-    <row r="626" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" ht="14.25" customHeight="1">
       <c r="A626" s="4" t="s">
         <v>629</v>
       </c>
@@ -10029,7 +10402,7 @@
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
     </row>
-    <row r="627" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" ht="14.25" customHeight="1">
       <c r="A627" s="4" t="s">
         <v>630</v>
       </c>
@@ -10038,7 +10411,7 @@
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
     </row>
-    <row r="628" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" ht="14.25" customHeight="1">
       <c r="A628" s="4" t="s">
         <v>631</v>
       </c>
@@ -10047,7 +10420,7 @@
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
     </row>
-    <row r="629" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" ht="14.25" customHeight="1">
       <c r="A629" s="4" t="s">
         <v>632</v>
       </c>
@@ -10056,7 +10429,7 @@
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
     </row>
-    <row r="630" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" ht="14.25" customHeight="1">
       <c r="A630" s="4" t="s">
         <v>633</v>
       </c>
@@ -10065,7 +10438,7 @@
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
     </row>
-    <row r="631" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" ht="14.25" customHeight="1">
       <c r="A631" s="4" t="s">
         <v>634</v>
       </c>
@@ -10074,7 +10447,7 @@
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
     </row>
-    <row r="632" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" ht="14.25" customHeight="1">
       <c r="A632" s="4" t="s">
         <v>635</v>
       </c>
@@ -10083,7 +10456,7 @@
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
     </row>
-    <row r="633" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" ht="14.25" customHeight="1">
       <c r="A633" s="4" t="s">
         <v>636</v>
       </c>
@@ -10092,7 +10465,7 @@
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
     </row>
-    <row r="634" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" ht="14.25" customHeight="1">
       <c r="A634" s="4" t="s">
         <v>637</v>
       </c>
@@ -10101,7 +10474,7 @@
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
     </row>
-    <row r="635" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" ht="14.25" customHeight="1">
       <c r="A635" s="4" t="s">
         <v>638</v>
       </c>
@@ -10110,7 +10483,7 @@
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
     </row>
-    <row r="636" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" ht="14.25" customHeight="1">
       <c r="A636" s="4" t="s">
         <v>639</v>
       </c>
@@ -10119,7 +10492,7 @@
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
     </row>
-    <row r="637" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" ht="14.25" customHeight="1">
       <c r="A637" s="4" t="s">
         <v>640</v>
       </c>
@@ -10128,7 +10501,7 @@
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
     </row>
-    <row r="638" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" ht="14.25" customHeight="1">
       <c r="A638" s="4" t="s">
         <v>641</v>
       </c>
@@ -10137,7 +10510,7 @@
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
     </row>
-    <row r="639" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" ht="14.25" customHeight="1">
       <c r="A639" s="4" t="s">
         <v>642</v>
       </c>
@@ -10146,7 +10519,7 @@
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
     </row>
-    <row r="640" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" ht="14.25" customHeight="1">
       <c r="A640" s="4" t="s">
         <v>643</v>
       </c>
@@ -10155,7 +10528,7 @@
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
     </row>
-    <row r="641" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" ht="14.25" customHeight="1">
       <c r="A641" s="4" t="s">
         <v>644</v>
       </c>
@@ -10164,7 +10537,7 @@
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
     </row>
-    <row r="642" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" ht="14.25" customHeight="1">
       <c r="A642" s="4" t="s">
         <v>645</v>
       </c>
@@ -10173,7 +10546,7 @@
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
     </row>
-    <row r="643" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" ht="14.25" customHeight="1">
       <c r="A643" s="4" t="s">
         <v>646</v>
       </c>
@@ -10182,7 +10555,7 @@
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
     </row>
-    <row r="644" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" ht="14.25" customHeight="1">
       <c r="A644" s="4" t="s">
         <v>647</v>
       </c>
@@ -10191,7 +10564,7 @@
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
     </row>
-    <row r="645" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" ht="14.25" customHeight="1">
       <c r="A645" s="4" t="s">
         <v>648</v>
       </c>
@@ -10200,7 +10573,7 @@
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
     </row>
-    <row r="646" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" ht="14.25" customHeight="1">
       <c r="A646" s="4" t="s">
         <v>649</v>
       </c>
@@ -10209,7 +10582,7 @@
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
     </row>
-    <row r="647" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" ht="14.25" customHeight="1">
       <c r="A647" s="4" t="s">
         <v>650</v>
       </c>
@@ -10218,7 +10591,7 @@
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
     </row>
-    <row r="648" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" ht="14.25" customHeight="1">
       <c r="A648" s="4" t="s">
         <v>651</v>
       </c>
@@ -10227,7 +10600,7 @@
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
     </row>
-    <row r="649" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" ht="14.25" customHeight="1">
       <c r="A649" s="4" t="s">
         <v>652</v>
       </c>
@@ -10236,7 +10609,7 @@
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
     </row>
-    <row r="650" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" ht="14.25" customHeight="1">
       <c r="A650" s="4" t="s">
         <v>653</v>
       </c>
@@ -10245,7 +10618,7 @@
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
     </row>
-    <row r="651" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" ht="14.25" customHeight="1">
       <c r="A651" s="4" t="s">
         <v>654</v>
       </c>
@@ -10254,7 +10627,7 @@
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
     </row>
-    <row r="652" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" ht="14.25" customHeight="1">
       <c r="A652" s="4" t="s">
         <v>655</v>
       </c>
@@ -10263,7 +10636,7 @@
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
     </row>
-    <row r="653" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" ht="14.25" customHeight="1">
       <c r="A653" s="4" t="s">
         <v>656</v>
       </c>
@@ -10272,7 +10645,7 @@
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
     </row>
-    <row r="654" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" ht="14.25" customHeight="1">
       <c r="A654" s="4" t="s">
         <v>657</v>
       </c>
@@ -10281,7 +10654,7 @@
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
     </row>
-    <row r="655" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" ht="14.25" customHeight="1">
       <c r="A655" s="4" t="s">
         <v>658</v>
       </c>
@@ -10290,7 +10663,7 @@
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
     </row>
-    <row r="656" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" ht="14.25" customHeight="1">
       <c r="A656" s="4" t="s">
         <v>659</v>
       </c>
@@ -10299,7 +10672,7 @@
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
     </row>
-    <row r="657" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" ht="14.25" customHeight="1">
       <c r="A657" s="4" t="s">
         <v>660</v>
       </c>
@@ -10308,7 +10681,7 @@
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
     </row>
-    <row r="658" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" ht="14.25" customHeight="1">
       <c r="A658" s="4" t="s">
         <v>661</v>
       </c>
@@ -10317,7 +10690,7 @@
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
     </row>
-    <row r="659" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" ht="14.25" customHeight="1">
       <c r="A659" s="4" t="s">
         <v>662</v>
       </c>
@@ -10326,7 +10699,7 @@
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
     </row>
-    <row r="660" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" ht="14.25" customHeight="1">
       <c r="A660" s="4" t="s">
         <v>663</v>
       </c>
@@ -10335,7 +10708,7 @@
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
     </row>
-    <row r="661" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" ht="14.25" customHeight="1">
       <c r="A661" s="4" t="s">
         <v>664</v>
       </c>
@@ -10344,7 +10717,7 @@
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
     </row>
-    <row r="662" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" ht="14.25" customHeight="1">
       <c r="A662" s="4" t="s">
         <v>665</v>
       </c>
@@ -10353,7 +10726,7 @@
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
     </row>
-    <row r="663" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" ht="14.25" customHeight="1">
       <c r="A663" s="4" t="s">
         <v>666</v>
       </c>
@@ -10362,7 +10735,7 @@
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
     </row>
-    <row r="664" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" ht="14.25" customHeight="1">
       <c r="A664" s="4" t="s">
         <v>667</v>
       </c>
@@ -10371,7 +10744,7 @@
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
     </row>
-    <row r="665" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" ht="14.25" customHeight="1">
       <c r="A665" s="4" t="s">
         <v>668</v>
       </c>
@@ -10380,7 +10753,7 @@
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
     </row>
-    <row r="666" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" ht="14.25" customHeight="1">
       <c r="A666" s="4" t="s">
         <v>669</v>
       </c>
@@ -10389,7 +10762,7 @@
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
     </row>
-    <row r="667" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" ht="14.25" customHeight="1">
       <c r="A667" s="4" t="s">
         <v>670</v>
       </c>
@@ -10398,7 +10771,7 @@
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
     </row>
-    <row r="668" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" ht="14.25" customHeight="1">
       <c r="A668" s="4" t="s">
         <v>671</v>
       </c>
@@ -10407,7 +10780,7 @@
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
     </row>
-    <row r="669" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" ht="14.25" customHeight="1">
       <c r="A669" s="4" t="s">
         <v>672</v>
       </c>
@@ -10416,7 +10789,7 @@
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
     </row>
-    <row r="670" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" ht="14.25" customHeight="1">
       <c r="A670" s="4" t="s">
         <v>673</v>
       </c>
@@ -10425,7 +10798,7 @@
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
     </row>
-    <row r="671" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" ht="14.25" customHeight="1">
       <c r="A671" s="4" t="s">
         <v>674</v>
       </c>
@@ -10434,7 +10807,7 @@
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
     </row>
-    <row r="672" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" ht="14.25" customHeight="1">
       <c r="A672" s="4" t="s">
         <v>675</v>
       </c>
@@ -10443,7 +10816,7 @@
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
     </row>
-    <row r="673" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" ht="14.25" customHeight="1">
       <c r="A673" s="4" t="s">
         <v>676</v>
       </c>
@@ -10452,7 +10825,7 @@
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
     </row>
-    <row r="674" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" ht="14.25" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>677</v>
       </c>
@@ -10461,7 +10834,7 @@
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
     </row>
-    <row r="675" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" ht="14.25" customHeight="1">
       <c r="A675" s="4" t="s">
         <v>678</v>
       </c>
@@ -10470,7 +10843,7 @@
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
     </row>
-    <row r="676" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" ht="14.25" customHeight="1">
       <c r="A676" s="4" t="s">
         <v>679</v>
       </c>
@@ -10479,7 +10852,7 @@
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
     </row>
-    <row r="677" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" ht="14.25" customHeight="1">
       <c r="A677" s="4" t="s">
         <v>680</v>
       </c>
@@ -10488,7 +10861,7 @@
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
     </row>
-    <row r="678" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" ht="14.25" customHeight="1">
       <c r="A678" s="4" t="s">
         <v>681</v>
       </c>
@@ -10497,7 +10870,7 @@
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
     </row>
-    <row r="679" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" ht="14.25" customHeight="1">
       <c r="A679" s="4" t="s">
         <v>682</v>
       </c>
@@ -10506,7 +10879,7 @@
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
     </row>
-    <row r="680" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" ht="14.25" customHeight="1">
       <c r="A680" s="4" t="s">
         <v>683</v>
       </c>
@@ -10515,7 +10888,7 @@
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
     </row>
-    <row r="681" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" ht="14.25" customHeight="1">
       <c r="A681" s="4" t="s">
         <v>684</v>
       </c>
@@ -10524,7 +10897,7 @@
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
     </row>
-    <row r="682" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" ht="14.25" customHeight="1">
       <c r="A682" s="4" t="s">
         <v>685</v>
       </c>
@@ -10533,7 +10906,7 @@
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
     </row>
-    <row r="683" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" ht="14.25" customHeight="1">
       <c r="A683" s="4" t="s">
         <v>686</v>
       </c>
@@ -10542,7 +10915,7 @@
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
     </row>
-    <row r="684" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" ht="14.25" customHeight="1">
       <c r="A684" s="4" t="s">
         <v>687</v>
       </c>
@@ -10551,7 +10924,7 @@
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
     </row>
-    <row r="685" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" ht="14.25" customHeight="1">
       <c r="A685" s="4" t="s">
         <v>688</v>
       </c>
@@ -10560,7 +10933,7 @@
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
     </row>
-    <row r="686" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" ht="14.25" customHeight="1">
       <c r="A686" s="4" t="s">
         <v>689</v>
       </c>
@@ -10569,7 +10942,7 @@
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
     </row>
-    <row r="687" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" ht="14.25" customHeight="1">
       <c r="A687" s="4" t="s">
         <v>690</v>
       </c>
@@ -10578,7 +10951,7 @@
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
     </row>
-    <row r="688" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" ht="14.25" customHeight="1">
       <c r="A688" s="4" t="s">
         <v>691</v>
       </c>
@@ -10587,7 +10960,7 @@
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
     </row>
-    <row r="689" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" ht="14.25" customHeight="1">
       <c r="A689" s="4" t="s">
         <v>692</v>
       </c>
@@ -10596,7 +10969,7 @@
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
     </row>
-    <row r="690" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" ht="14.25" customHeight="1">
       <c r="A690" s="4" t="s">
         <v>693</v>
       </c>
@@ -10605,7 +10978,7 @@
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
     </row>
-    <row r="691" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" ht="14.25" customHeight="1">
       <c r="A691" s="4" t="s">
         <v>694</v>
       </c>
@@ -10614,7 +10987,7 @@
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
     </row>
-    <row r="692" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" ht="14.25" customHeight="1">
       <c r="A692" s="4" t="s">
         <v>695</v>
       </c>
@@ -10623,7 +10996,7 @@
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
     </row>
-    <row r="693" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" ht="14.25" customHeight="1">
       <c r="A693" s="4" t="s">
         <v>696</v>
       </c>
@@ -10632,7 +11005,7 @@
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
     </row>
-    <row r="694" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" ht="14.25" customHeight="1">
       <c r="A694" s="4" t="s">
         <v>697</v>
       </c>
@@ -10641,7 +11014,7 @@
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
     </row>
-    <row r="695" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" ht="14.25" customHeight="1">
       <c r="A695" s="4" t="s">
         <v>698</v>
       </c>
@@ -10650,7 +11023,7 @@
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
     </row>
-    <row r="696" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" ht="14.25" customHeight="1">
       <c r="A696" s="4" t="s">
         <v>699</v>
       </c>
@@ -10659,7 +11032,7 @@
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
     </row>
-    <row r="697" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" ht="14.25" customHeight="1">
       <c r="A697" s="4" t="s">
         <v>700</v>
       </c>
@@ -10668,7 +11041,7 @@
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
     </row>
-    <row r="698" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" ht="14.25" customHeight="1">
       <c r="A698" s="4" t="s">
         <v>701</v>
       </c>
@@ -10677,7 +11050,7 @@
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
     </row>
-    <row r="699" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" ht="14.25" customHeight="1">
       <c r="A699" s="4" t="s">
         <v>702</v>
       </c>
@@ -10686,7 +11059,7 @@
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
     </row>
-    <row r="700" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" ht="14.25" customHeight="1">
       <c r="A700" s="4" t="s">
         <v>703</v>
       </c>
@@ -10695,7 +11068,7 @@
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
     </row>
-    <row r="701" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" ht="14.25" customHeight="1">
       <c r="A701" s="4" t="s">
         <v>704</v>
       </c>
@@ -10704,7 +11077,7 @@
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
     </row>
-    <row r="702" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" ht="14.25" customHeight="1">
       <c r="A702" s="4" t="s">
         <v>705</v>
       </c>
@@ -10713,7 +11086,7 @@
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
     </row>
-    <row r="703" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" ht="14.25" customHeight="1">
       <c r="A703" s="4" t="s">
         <v>706</v>
       </c>
@@ -10722,7 +11095,7 @@
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
     </row>
-    <row r="704" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" ht="14.25" customHeight="1">
       <c r="A704" s="4" t="s">
         <v>707</v>
       </c>
@@ -10731,7 +11104,7 @@
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
     </row>
-    <row r="705" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" ht="14.25" customHeight="1">
       <c r="A705" s="4" t="s">
         <v>708</v>
       </c>
@@ -10740,7 +11113,7 @@
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
     </row>
-    <row r="706" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" ht="14.25" customHeight="1">
       <c r="A706" s="4" t="s">
         <v>709</v>
       </c>
@@ -10749,7 +11122,7 @@
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
     </row>
-    <row r="707" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" ht="14.25" customHeight="1">
       <c r="A707" s="4" t="s">
         <v>710</v>
       </c>
@@ -10758,7 +11131,7 @@
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
     </row>
-    <row r="708" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" ht="14.25" customHeight="1">
       <c r="A708" s="4" t="s">
         <v>711</v>
       </c>
@@ -10767,7 +11140,7 @@
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
     </row>
-    <row r="709" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" ht="14.25" customHeight="1">
       <c r="A709" s="4" t="s">
         <v>712</v>
       </c>
@@ -10776,7 +11149,7 @@
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
     </row>
-    <row r="710" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" ht="14.25" customHeight="1">
       <c r="A710" s="4" t="s">
         <v>713</v>
       </c>
@@ -10785,7 +11158,7 @@
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
     </row>
-    <row r="711" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" ht="14.25" customHeight="1">
       <c r="A711" s="4" t="s">
         <v>714</v>
       </c>
@@ -10794,7 +11167,7 @@
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
     </row>
-    <row r="712" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" ht="14.25" customHeight="1">
       <c r="A712" s="4" t="s">
         <v>715</v>
       </c>
@@ -10803,7 +11176,7 @@
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
     </row>
-    <row r="713" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" ht="14.25" customHeight="1">
       <c r="A713" s="4" t="s">
         <v>716</v>
       </c>
@@ -10812,7 +11185,7 @@
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
     </row>
-    <row r="714" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" ht="14.25" customHeight="1">
       <c r="A714" s="4" t="s">
         <v>717</v>
       </c>
@@ -10821,7 +11194,7 @@
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
     </row>
-    <row r="715" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" ht="14.25" customHeight="1">
       <c r="A715" s="4" t="s">
         <v>718</v>
       </c>
@@ -10830,7 +11203,7 @@
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
     </row>
-    <row r="716" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" ht="14.25" customHeight="1">
       <c r="A716" s="4" t="s">
         <v>719</v>
       </c>
@@ -10839,7 +11212,7 @@
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
     </row>
-    <row r="717" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" ht="14.25" customHeight="1">
       <c r="A717" s="4" t="s">
         <v>720</v>
       </c>
@@ -10848,7 +11221,7 @@
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
     </row>
-    <row r="718" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" ht="14.25" customHeight="1">
       <c r="A718" s="4" t="s">
         <v>721</v>
       </c>
@@ -10857,7 +11230,7 @@
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
     </row>
-    <row r="719" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" ht="14.25" customHeight="1">
       <c r="A719" s="4" t="s">
         <v>722</v>
       </c>
@@ -10866,7 +11239,7 @@
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
     </row>
-    <row r="720" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" ht="14.25" customHeight="1">
       <c r="A720" s="4" t="s">
         <v>723</v>
       </c>
@@ -10875,7 +11248,7 @@
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
     </row>
-    <row r="721" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" ht="14.25" customHeight="1">
       <c r="A721" s="4" t="s">
         <v>724</v>
       </c>
@@ -10884,7 +11257,7 @@
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
     </row>
-    <row r="722" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" ht="14.25" customHeight="1">
       <c r="A722" s="4" t="s">
         <v>725</v>
       </c>
@@ -10893,7 +11266,7 @@
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
     </row>
-    <row r="723" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" ht="14.25" customHeight="1">
       <c r="A723" s="4" t="s">
         <v>726</v>
       </c>
@@ -10902,7 +11275,7 @@
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
     </row>
-    <row r="724" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" ht="14.25" customHeight="1">
       <c r="A724" s="4" t="s">
         <v>727</v>
       </c>
@@ -10911,7 +11284,7 @@
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
     </row>
-    <row r="725" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" ht="14.25" customHeight="1">
       <c r="A725" s="4" t="s">
         <v>728</v>
       </c>
@@ -10920,7 +11293,7 @@
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
     </row>
-    <row r="726" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" ht="14.25" customHeight="1">
       <c r="A726" s="4" t="s">
         <v>729</v>
       </c>
@@ -10929,7 +11302,7 @@
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
     </row>
-    <row r="727" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" ht="14.25" customHeight="1">
       <c r="A727" s="4" t="s">
         <v>730</v>
       </c>
@@ -10938,7 +11311,7 @@
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
     </row>
-    <row r="728" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" ht="14.25" customHeight="1">
       <c r="A728" s="4" t="s">
         <v>731</v>
       </c>
@@ -10947,7 +11320,7 @@
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
     </row>
-    <row r="729" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" ht="14.25" customHeight="1">
       <c r="A729" s="4" t="s">
         <v>732</v>
       </c>
@@ -10956,7 +11329,7 @@
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
     </row>
-    <row r="730" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" ht="14.25" customHeight="1">
       <c r="A730" s="4" t="s">
         <v>733</v>
       </c>
@@ -10965,7 +11338,7 @@
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
     </row>
-    <row r="731" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" ht="14.25" customHeight="1">
       <c r="A731" s="4" t="s">
         <v>734</v>
       </c>
@@ -10974,7 +11347,7 @@
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
     </row>
-    <row r="732" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" ht="14.25" customHeight="1">
       <c r="A732" s="4" t="s">
         <v>735</v>
       </c>
@@ -10983,7 +11356,7 @@
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
     </row>
-    <row r="733" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" ht="14.25" customHeight="1">
       <c r="A733" s="4" t="s">
         <v>736</v>
       </c>
@@ -10992,7 +11365,7 @@
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
     </row>
-    <row r="734" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" ht="14.25" customHeight="1">
       <c r="A734" s="4" t="s">
         <v>737</v>
       </c>
@@ -11001,7 +11374,7 @@
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
     </row>
-    <row r="735" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" ht="14.25" customHeight="1">
       <c r="A735" s="4" t="s">
         <v>738</v>
       </c>
@@ -11010,7 +11383,7 @@
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
     </row>
-    <row r="736" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" ht="14.25" customHeight="1">
       <c r="A736" s="4" t="s">
         <v>739</v>
       </c>
@@ -11019,7 +11392,7 @@
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
     </row>
-    <row r="737" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" ht="14.25" customHeight="1">
       <c r="A737" s="4" t="s">
         <v>740</v>
       </c>
@@ -11028,7 +11401,7 @@
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
     </row>
-    <row r="738" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" ht="14.25" customHeight="1">
       <c r="A738" s="4" t="s">
         <v>741</v>
       </c>
@@ -11037,7 +11410,7 @@
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
     </row>
-    <row r="739" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" ht="14.25" customHeight="1">
       <c r="A739" s="4" t="s">
         <v>742</v>
       </c>
@@ -11046,7 +11419,7 @@
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
     </row>
-    <row r="740" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" ht="14.25" customHeight="1">
       <c r="A740" s="4" t="s">
         <v>743</v>
       </c>
@@ -11055,7 +11428,7 @@
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
     </row>
-    <row r="741" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" ht="14.25" customHeight="1">
       <c r="A741" s="4" t="s">
         <v>744</v>
       </c>
@@ -11064,7 +11437,7 @@
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
     </row>
-    <row r="742" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" ht="14.25" customHeight="1">
       <c r="A742" s="4" t="s">
         <v>745</v>
       </c>
@@ -11073,7 +11446,7 @@
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
     </row>
-    <row r="743" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" ht="14.25" customHeight="1">
       <c r="A743" s="4" t="s">
         <v>746</v>
       </c>
@@ -11082,7 +11455,7 @@
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
     </row>
-    <row r="744" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" ht="14.25" customHeight="1">
       <c r="A744" s="4" t="s">
         <v>747</v>
       </c>
@@ -11091,7 +11464,7 @@
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
     </row>
-    <row r="745" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" ht="14.25" customHeight="1">
       <c r="A745" s="4" t="s">
         <v>748</v>
       </c>
@@ -11100,7 +11473,7 @@
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
     </row>
-    <row r="746" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" ht="14.25" customHeight="1">
       <c r="A746" s="4" t="s">
         <v>749</v>
       </c>
@@ -11109,7 +11482,7 @@
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
     </row>
-    <row r="747" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" ht="14.25" customHeight="1">
       <c r="A747" s="4" t="s">
         <v>750</v>
       </c>
@@ -11118,7 +11491,7 @@
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
     </row>
-    <row r="748" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" ht="14.25" customHeight="1">
       <c r="A748" s="4" t="s">
         <v>751</v>
       </c>
@@ -11127,7 +11500,7 @@
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
     </row>
-    <row r="749" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" ht="14.25" customHeight="1">
       <c r="A749" s="4" t="s">
         <v>752</v>
       </c>
@@ -11136,7 +11509,7 @@
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
     </row>
-    <row r="750" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" ht="14.25" customHeight="1">
       <c r="A750" s="4" t="s">
         <v>753</v>
       </c>
@@ -11145,7 +11518,7 @@
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
     </row>
-    <row r="751" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" ht="14.25" customHeight="1">
       <c r="A751" s="4" t="s">
         <v>754</v>
       </c>
@@ -11154,7 +11527,7 @@
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
     </row>
-    <row r="752" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" ht="14.25" customHeight="1">
       <c r="A752" s="4" t="s">
         <v>755</v>
       </c>
@@ -11163,7 +11536,7 @@
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
     </row>
-    <row r="753" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" ht="14.25" customHeight="1">
       <c r="A753" s="4" t="s">
         <v>756</v>
       </c>
@@ -11172,7 +11545,7 @@
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
     </row>
-    <row r="754" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" ht="14.25" customHeight="1">
       <c r="A754" s="4" t="s">
         <v>757</v>
       </c>
@@ -11181,7 +11554,7 @@
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
     </row>
-    <row r="755" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" ht="14.25" customHeight="1">
       <c r="A755" s="4" t="s">
         <v>758</v>
       </c>
@@ -11190,7 +11563,7 @@
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
     </row>
-    <row r="756" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" ht="14.25" customHeight="1">
       <c r="A756" s="4" t="s">
         <v>759</v>
       </c>
@@ -11199,7 +11572,7 @@
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
     </row>
-    <row r="757" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" ht="14.25" customHeight="1">
       <c r="A757" s="4" t="s">
         <v>760</v>
       </c>
@@ -11208,7 +11581,7 @@
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
     </row>
-    <row r="758" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" ht="14.25" customHeight="1">
       <c r="A758" s="4" t="s">
         <v>761</v>
       </c>
@@ -11217,7 +11590,7 @@
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
     </row>
-    <row r="759" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" ht="14.25" customHeight="1">
       <c r="A759" s="4" t="s">
         <v>762</v>
       </c>
@@ -11226,7 +11599,7 @@
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
     </row>
-    <row r="760" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" ht="14.25" customHeight="1">
       <c r="A760" s="4" t="s">
         <v>763</v>
       </c>
@@ -11235,7 +11608,7 @@
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
     </row>
-    <row r="761" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" ht="14.25" customHeight="1">
       <c r="A761" s="4" t="s">
         <v>764</v>
       </c>
@@ -11244,7 +11617,7 @@
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
     </row>
-    <row r="762" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" ht="14.25" customHeight="1">
       <c r="A762" s="4" t="s">
         <v>765</v>
       </c>
@@ -11253,7 +11626,7 @@
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
     </row>
-    <row r="763" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" ht="14.25" customHeight="1">
       <c r="A763" s="4" t="s">
         <v>766</v>
       </c>
@@ -11262,7 +11635,7 @@
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
     </row>
-    <row r="764" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" ht="14.25" customHeight="1">
       <c r="A764" s="4" t="s">
         <v>767</v>
       </c>
@@ -11271,7 +11644,7 @@
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
     </row>
-    <row r="765" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" ht="14.25" customHeight="1">
       <c r="A765" s="4" t="s">
         <v>768</v>
       </c>
@@ -11280,7 +11653,7 @@
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
     </row>
-    <row r="766" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" ht="14.25" customHeight="1">
       <c r="A766" s="4" t="s">
         <v>769</v>
       </c>
@@ -11289,7 +11662,7 @@
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
     </row>
-    <row r="767" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" ht="14.25" customHeight="1">
       <c r="A767" s="4" t="s">
         <v>770</v>
       </c>
@@ -11298,7 +11671,7 @@
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
     </row>
-    <row r="768" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" ht="14.25" customHeight="1">
       <c r="A768" s="4" t="s">
         <v>771</v>
       </c>
@@ -11307,7 +11680,7 @@
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
     </row>
-    <row r="769" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" ht="14.25" customHeight="1">
       <c r="A769" s="4" t="s">
         <v>772</v>
       </c>
@@ -11316,7 +11689,7 @@
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
     </row>
-    <row r="770" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" ht="14.25" customHeight="1">
       <c r="A770" s="4" t="s">
         <v>773</v>
       </c>
@@ -11325,7 +11698,7 @@
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
     </row>
-    <row r="771" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" ht="14.25" customHeight="1">
       <c r="A771" s="4" t="s">
         <v>774</v>
       </c>
@@ -11334,7 +11707,7 @@
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
     </row>
-    <row r="772" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" ht="14.25" customHeight="1">
       <c r="A772" s="4" t="s">
         <v>775</v>
       </c>
@@ -11343,7 +11716,7 @@
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
     </row>
-    <row r="773" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" ht="14.25" customHeight="1">
       <c r="A773" s="4" t="s">
         <v>776</v>
       </c>
@@ -11352,7 +11725,7 @@
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
     </row>
-    <row r="774" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" ht="14.25" customHeight="1">
       <c r="A774" s="4" t="s">
         <v>777</v>
       </c>
@@ -11361,7 +11734,7 @@
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
     </row>
-    <row r="775" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" ht="14.25" customHeight="1">
       <c r="A775" s="4" t="s">
         <v>778</v>
       </c>
@@ -11370,7 +11743,7 @@
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
     </row>
-    <row r="776" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" ht="14.25" customHeight="1">
       <c r="A776" s="4" t="s">
         <v>779</v>
       </c>
@@ -11379,7 +11752,7 @@
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
     </row>
-    <row r="777" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" ht="14.25" customHeight="1">
       <c r="A777" s="4" t="s">
         <v>780</v>
       </c>
@@ -11388,7 +11761,7 @@
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
     </row>
-    <row r="778" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" ht="14.25" customHeight="1">
       <c r="A778" s="4" t="s">
         <v>781</v>
       </c>
@@ -11397,7 +11770,7 @@
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
     </row>
-    <row r="779" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" ht="14.25" customHeight="1">
       <c r="A779" s="4" t="s">
         <v>782</v>
       </c>
@@ -11406,7 +11779,7 @@
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
     </row>
-    <row r="780" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" ht="14.25" customHeight="1">
       <c r="A780" s="4" t="s">
         <v>783</v>
       </c>
@@ -11415,7 +11788,7 @@
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
     </row>
-    <row r="781" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" ht="14.25" customHeight="1">
       <c r="A781" s="4" t="s">
         <v>784</v>
       </c>
@@ -11424,7 +11797,7 @@
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
     </row>
-    <row r="782" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" ht="14.25" customHeight="1">
       <c r="A782" s="4" t="s">
         <v>785</v>
       </c>
@@ -11433,7 +11806,7 @@
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
     </row>
-    <row r="783" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" ht="14.25" customHeight="1">
       <c r="A783" s="4" t="s">
         <v>786</v>
       </c>
@@ -11442,7 +11815,7 @@
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
     </row>
-    <row r="784" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" ht="14.25" customHeight="1">
       <c r="A784" s="4" t="s">
         <v>787</v>
       </c>
@@ -11451,7 +11824,7 @@
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
     </row>
-    <row r="785" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" ht="14.25" customHeight="1">
       <c r="A785" s="4" t="s">
         <v>788</v>
       </c>
@@ -11460,7 +11833,7 @@
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
     </row>
-    <row r="786" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" ht="14.25" customHeight="1">
       <c r="A786" s="4" t="s">
         <v>789</v>
       </c>
@@ -11469,7 +11842,7 @@
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
     </row>
-    <row r="787" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" ht="14.25" customHeight="1">
       <c r="A787" s="4" t="s">
         <v>790</v>
       </c>
@@ -11478,7 +11851,7 @@
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
     </row>
-    <row r="788" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" ht="14.25" customHeight="1">
       <c r="A788" s="4" t="s">
         <v>791</v>
       </c>
@@ -11487,7 +11860,7 @@
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
     </row>
-    <row r="789" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" ht="14.25" customHeight="1">
       <c r="A789" s="4" t="s">
         <v>792</v>
       </c>
@@ -11496,7 +11869,7 @@
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
     </row>
-    <row r="790" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" ht="14.25" customHeight="1">
       <c r="A790" s="4" t="s">
         <v>793</v>
       </c>
@@ -11505,7 +11878,7 @@
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
     </row>
-    <row r="791" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" ht="14.25" customHeight="1">
       <c r="A791" s="4" t="s">
         <v>794</v>
       </c>
@@ -11514,7 +11887,7 @@
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
     </row>
-    <row r="792" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" ht="14.25" customHeight="1">
       <c r="A792" s="4" t="s">
         <v>795</v>
       </c>
@@ -11523,7 +11896,7 @@
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
     </row>
-    <row r="793" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" ht="14.25" customHeight="1">
       <c r="A793" s="4" t="s">
         <v>796</v>
       </c>
@@ -11532,7 +11905,7 @@
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
     </row>
-    <row r="794" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" ht="14.25" customHeight="1">
       <c r="A794" s="4" t="s">
         <v>797</v>
       </c>
@@ -11541,7 +11914,7 @@
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
     </row>
-    <row r="795" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" ht="14.25" customHeight="1">
       <c r="A795" s="4" t="s">
         <v>798</v>
       </c>
@@ -11550,7 +11923,7 @@
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
     </row>
-    <row r="796" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" ht="14.25" customHeight="1">
       <c r="A796" s="4" t="s">
         <v>799</v>
       </c>
@@ -11559,7 +11932,7 @@
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
     </row>
-    <row r="797" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" ht="14.25" customHeight="1">
       <c r="A797" s="4" t="s">
         <v>800</v>
       </c>
@@ -11568,7 +11941,7 @@
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
     </row>
-    <row r="798" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" ht="14.25" customHeight="1">
       <c r="A798" s="4" t="s">
         <v>801</v>
       </c>
@@ -11577,7 +11950,7 @@
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
     </row>
-    <row r="799" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" ht="14.25" customHeight="1">
       <c r="A799" s="4" t="s">
         <v>802</v>
       </c>
@@ -11586,7 +11959,7 @@
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
     </row>
-    <row r="800" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" ht="14.25" customHeight="1">
       <c r="A800" s="4" t="s">
         <v>803</v>
       </c>
@@ -11595,7 +11968,7 @@
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
     </row>
-    <row r="801" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" ht="14.25" customHeight="1">
       <c r="A801" s="4" t="s">
         <v>804</v>
       </c>
@@ -11604,7 +11977,7 @@
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
     </row>
-    <row r="802" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" ht="14.25" customHeight="1">
       <c r="A802" s="4" t="s">
         <v>805</v>
       </c>
@@ -11613,7 +11986,7 @@
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
     </row>
-    <row r="803" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" ht="14.25" customHeight="1">
       <c r="A803" s="4" t="s">
         <v>806</v>
       </c>
@@ -11622,7 +11995,7 @@
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
     </row>
-    <row r="804" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" ht="14.25" customHeight="1">
       <c r="A804" s="4" t="s">
         <v>807</v>
       </c>
@@ -11631,7 +12004,7 @@
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
     </row>
-    <row r="805" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" ht="14.25" customHeight="1">
       <c r="A805" s="4" t="s">
         <v>808</v>
       </c>
@@ -11640,7 +12013,7 @@
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
     </row>
-    <row r="806" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" ht="14.25" customHeight="1">
       <c r="A806" s="4" t="s">
         <v>809</v>
       </c>
@@ -11649,7 +12022,7 @@
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
     </row>
-    <row r="807" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" ht="14.25" customHeight="1">
       <c r="A807" s="4" t="s">
         <v>810</v>
       </c>
@@ -11658,7 +12031,7 @@
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
     </row>
-    <row r="808" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" ht="14.25" customHeight="1">
       <c r="A808" s="4" t="s">
         <v>811</v>
       </c>
@@ -11667,7 +12040,7 @@
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
     </row>
-    <row r="809" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" ht="14.25" customHeight="1">
       <c r="A809" s="4" t="s">
         <v>812</v>
       </c>
@@ -11676,7 +12049,7 @@
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
     </row>
-    <row r="810" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" ht="14.25" customHeight="1">
       <c r="A810" s="4" t="s">
         <v>813</v>
       </c>
@@ -11685,7 +12058,7 @@
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
     </row>
-    <row r="811" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" ht="14.25" customHeight="1">
       <c r="A811" s="4" t="s">
         <v>814</v>
       </c>
@@ -11694,7 +12067,7 @@
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
     </row>
-    <row r="812" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" ht="14.25" customHeight="1">
       <c r="A812" s="4" t="s">
         <v>815</v>
       </c>
@@ -11703,7 +12076,7 @@
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
     </row>
-    <row r="813" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" ht="14.25" customHeight="1">
       <c r="A813" s="4" t="s">
         <v>816</v>
       </c>
@@ -11712,7 +12085,7 @@
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
     </row>
-    <row r="814" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" ht="14.25" customHeight="1">
       <c r="A814" s="4" t="s">
         <v>817</v>
       </c>
@@ -11721,7 +12094,7 @@
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
     </row>
-    <row r="815" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" ht="14.25" customHeight="1">
       <c r="A815" s="4" t="s">
         <v>818</v>
       </c>
@@ -11730,7 +12103,7 @@
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
     </row>
-    <row r="816" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" ht="14.25" customHeight="1">
       <c r="A816" s="4" t="s">
         <v>819</v>
       </c>
@@ -11739,7 +12112,7 @@
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
     </row>
-    <row r="817" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" ht="14.25" customHeight="1">
       <c r="A817" s="4" t="s">
         <v>820</v>
       </c>
@@ -11748,7 +12121,7 @@
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
     </row>
-    <row r="818" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" ht="14.25" customHeight="1">
       <c r="A818" s="4" t="s">
         <v>821</v>
       </c>
@@ -11757,7 +12130,7 @@
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
     </row>
-    <row r="819" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" ht="14.25" customHeight="1">
       <c r="A819" s="4" t="s">
         <v>822</v>
       </c>
@@ -11766,7 +12139,7 @@
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
     </row>
-    <row r="820" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" ht="14.25" customHeight="1">
       <c r="A820" s="4" t="s">
         <v>823</v>
       </c>
@@ -11775,7 +12148,7 @@
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
     </row>
-    <row r="821" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" ht="14.25" customHeight="1">
       <c r="A821" s="4" t="s">
         <v>824</v>
       </c>
@@ -11784,7 +12157,7 @@
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
     </row>
-    <row r="822" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" ht="14.25" customHeight="1">
       <c r="A822" s="4" t="s">
         <v>825</v>
       </c>
@@ -11793,7 +12166,7 @@
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
     </row>
-    <row r="823" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" ht="14.25" customHeight="1">
       <c r="A823" s="4" t="s">
         <v>826</v>
       </c>
@@ -11802,7 +12175,7 @@
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
     </row>
-    <row r="824" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" ht="14.25" customHeight="1">
       <c r="A824" s="4" t="s">
         <v>827</v>
       </c>
@@ -11811,7 +12184,7 @@
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
     </row>
-    <row r="825" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" ht="14.25" customHeight="1">
       <c r="A825" s="4" t="s">
         <v>828</v>
       </c>
@@ -11820,7 +12193,7 @@
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
     </row>
-    <row r="826" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" ht="14.25" customHeight="1">
       <c r="A826" s="4" t="s">
         <v>829</v>
       </c>
@@ -11829,7 +12202,7 @@
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
     </row>
-    <row r="827" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" ht="14.25" customHeight="1">
       <c r="A827" s="4" t="s">
         <v>830</v>
       </c>
@@ -11838,7 +12211,7 @@
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
     </row>
-    <row r="828" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" ht="14.25" customHeight="1">
       <c r="A828" s="4" t="s">
         <v>831</v>
       </c>
@@ -11847,7 +12220,7 @@
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
     </row>
-    <row r="829" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" ht="14.25" customHeight="1">
       <c r="A829" s="4" t="s">
         <v>832</v>
       </c>
@@ -11856,7 +12229,7 @@
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
     </row>
-    <row r="830" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" ht="14.25" customHeight="1">
       <c r="A830" s="4" t="s">
         <v>833</v>
       </c>
@@ -11865,7 +12238,7 @@
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
     </row>
-    <row r="831" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" ht="14.25" customHeight="1">
       <c r="A831" s="4" t="s">
         <v>834</v>
       </c>
@@ -11874,7 +12247,7 @@
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
     </row>
-    <row r="832" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" ht="14.25" customHeight="1">
       <c r="A832" s="4" t="s">
         <v>835</v>
       </c>
@@ -11883,7 +12256,7 @@
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
     </row>
-    <row r="833" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" ht="14.25" customHeight="1">
       <c r="A833" s="4" t="s">
         <v>836</v>
       </c>
@@ -11892,7 +12265,7 @@
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
     </row>
-    <row r="834" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" ht="14.25" customHeight="1">
       <c r="A834" s="4" t="s">
         <v>837</v>
       </c>
@@ -11901,7 +12274,7 @@
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
     </row>
-    <row r="835" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" ht="14.25" customHeight="1">
       <c r="A835" s="4" t="s">
         <v>838</v>
       </c>
@@ -11910,7 +12283,7 @@
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
     </row>
-    <row r="836" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" ht="14.25" customHeight="1">
       <c r="A836" s="4" t="s">
         <v>839</v>
       </c>
@@ -11919,7 +12292,7 @@
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
     </row>
-    <row r="837" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" ht="14.25" customHeight="1">
       <c r="A837" s="4" t="s">
         <v>840</v>
       </c>
@@ -11928,7 +12301,7 @@
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
     </row>
-    <row r="838" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" ht="14.25" customHeight="1">
       <c r="A838" s="4" t="s">
         <v>841</v>
       </c>
@@ -11937,7 +12310,7 @@
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
     </row>
-    <row r="839" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" ht="14.25" customHeight="1">
       <c r="A839" s="4" t="s">
         <v>842</v>
       </c>
@@ -11946,7 +12319,7 @@
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
     </row>
-    <row r="840" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" ht="14.25" customHeight="1">
       <c r="A840" s="4" t="s">
         <v>843</v>
       </c>
@@ -11955,7 +12328,7 @@
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
     </row>
-    <row r="841" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" ht="14.25" customHeight="1">
       <c r="A841" s="4" t="s">
         <v>844</v>
       </c>
@@ -11964,7 +12337,7 @@
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
     </row>
-    <row r="842" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" ht="14.25" customHeight="1">
       <c r="A842" s="4" t="s">
         <v>845</v>
       </c>
@@ -11973,7 +12346,7 @@
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
     </row>
-    <row r="843" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" ht="14.25" customHeight="1">
       <c r="A843" s="4" t="s">
         <v>846</v>
       </c>
@@ -11982,7 +12355,7 @@
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
     </row>
-    <row r="844" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" ht="14.25" customHeight="1">
       <c r="A844" s="4" t="s">
         <v>847</v>
       </c>
@@ -11991,7 +12364,7 @@
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
     </row>
-    <row r="845" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" ht="14.25" customHeight="1">
       <c r="A845" s="4" t="s">
         <v>848</v>
       </c>
@@ -12000,7 +12373,7 @@
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
     </row>
-    <row r="846" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" ht="14.25" customHeight="1">
       <c r="A846" s="4" t="s">
         <v>849</v>
       </c>
@@ -12009,7 +12382,7 @@
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
     </row>
-    <row r="847" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" ht="14.25" customHeight="1">
       <c r="A847" s="4" t="s">
         <v>850</v>
       </c>
@@ -12018,7 +12391,7 @@
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
     </row>
-    <row r="848" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" ht="14.25" customHeight="1">
       <c r="A848" s="4" t="s">
         <v>851</v>
       </c>
@@ -12027,7 +12400,7 @@
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
     </row>
-    <row r="849" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" ht="14.25" customHeight="1">
       <c r="A849" s="4" t="s">
         <v>852</v>
       </c>
@@ -12036,7 +12409,7 @@
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
     </row>
-    <row r="850" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" ht="14.25" customHeight="1">
       <c r="A850" s="4" t="s">
         <v>853</v>
       </c>
@@ -12045,7 +12418,7 @@
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
     </row>
-    <row r="851" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" ht="14.25" customHeight="1">
       <c r="A851" s="4" t="s">
         <v>854</v>
       </c>
@@ -12054,7 +12427,7 @@
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
     </row>
-    <row r="852" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" ht="14.25" customHeight="1">
       <c r="A852" s="4" t="s">
         <v>855</v>
       </c>
@@ -12063,7 +12436,7 @@
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
     </row>
-    <row r="853" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" ht="14.25" customHeight="1">
       <c r="A853" s="4" t="s">
         <v>856</v>
       </c>
@@ -12072,7 +12445,7 @@
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
     </row>
-    <row r="854" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" ht="14.25" customHeight="1">
       <c r="A854" s="4" t="s">
         <v>857</v>
       </c>
@@ -12081,7 +12454,7 @@
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
     </row>
-    <row r="855" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" ht="14.25" customHeight="1">
       <c r="A855" s="4" t="s">
         <v>858</v>
       </c>
@@ -12090,7 +12463,7 @@
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
     </row>
-    <row r="856" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" ht="14.25" customHeight="1">
       <c r="A856" s="4" t="s">
         <v>859</v>
       </c>
@@ -12099,7 +12472,7 @@
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
     </row>
-    <row r="857" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" ht="14.25" customHeight="1">
       <c r="A857" s="4" t="s">
         <v>860</v>
       </c>
@@ -12108,7 +12481,7 @@
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
     </row>
-    <row r="858" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" ht="14.25" customHeight="1">
       <c r="A858" s="4" t="s">
         <v>861</v>
       </c>
@@ -12117,7 +12490,7 @@
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
     </row>
-    <row r="859" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" ht="14.25" customHeight="1">
       <c r="A859" s="4" t="s">
         <v>862</v>
       </c>
@@ -12126,7 +12499,7 @@
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
     </row>
-    <row r="860" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" ht="14.25" customHeight="1">
       <c r="A860" s="4" t="s">
         <v>863</v>
       </c>
@@ -12135,7 +12508,7 @@
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
     </row>
-    <row r="861" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" ht="14.25" customHeight="1">
       <c r="A861" s="4" t="s">
         <v>864</v>
       </c>
@@ -12144,7 +12517,7 @@
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
     </row>
-    <row r="862" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" ht="14.25" customHeight="1">
       <c r="A862" s="4" t="s">
         <v>865</v>
       </c>
@@ -12153,7 +12526,7 @@
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
     </row>
-    <row r="863" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" ht="14.25" customHeight="1">
       <c r="A863" s="4" t="s">
         <v>866</v>
       </c>
@@ -12162,7 +12535,7 @@
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
     </row>
-    <row r="864" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" ht="14.25" customHeight="1">
       <c r="A864" s="4" t="s">
         <v>867</v>
       </c>
@@ -12171,7 +12544,7 @@
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
     </row>
-    <row r="865" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" ht="14.25" customHeight="1">
       <c r="A865" s="4" t="s">
         <v>868</v>
       </c>
@@ -12180,7 +12553,7 @@
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
     </row>
-    <row r="866" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" ht="14.25" customHeight="1">
       <c r="A866" s="4" t="s">
         <v>869</v>
       </c>
@@ -12189,7 +12562,7 @@
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
     </row>
-    <row r="867" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" ht="14.25" customHeight="1">
       <c r="A867" s="4" t="s">
         <v>870</v>
       </c>
@@ -12198,7 +12571,7 @@
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
     </row>
-    <row r="868" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:5" ht="14.25" customHeight="1">
       <c r="A868" s="4" t="s">
         <v>871</v>
       </c>
@@ -12207,7 +12580,7 @@
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
     </row>
-    <row r="869" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:5" ht="14.25" customHeight="1">
       <c r="A869" s="4" t="s">
         <v>872</v>
       </c>
@@ -12216,7 +12589,7 @@
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
     </row>
-    <row r="870" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" ht="14.25" customHeight="1">
       <c r="A870" s="4" t="s">
         <v>873</v>
       </c>
@@ -12225,7 +12598,7 @@
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
     </row>
-    <row r="871" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" ht="14.25" customHeight="1">
       <c r="A871" s="4" t="s">
         <v>874</v>
       </c>
@@ -12234,7 +12607,7 @@
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
     </row>
-    <row r="872" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:5" ht="14.25" customHeight="1">
       <c r="A872" s="4" t="s">
         <v>875</v>
       </c>
@@ -12243,7 +12616,7 @@
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
     </row>
-    <row r="873" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:5" ht="14.25" customHeight="1">
       <c r="A873" s="4" t="s">
         <v>876</v>
       </c>
@@ -12252,7 +12625,7 @@
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
     </row>
-    <row r="874" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:5" ht="14.25" customHeight="1">
       <c r="A874" s="4" t="s">
         <v>877</v>
       </c>
@@ -12261,7 +12634,7 @@
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
     </row>
-    <row r="875" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:5" ht="14.25" customHeight="1">
       <c r="A875" s="4" t="s">
         <v>878</v>
       </c>
@@ -12270,7 +12643,7 @@
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
     </row>
-    <row r="876" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" ht="14.25" customHeight="1">
       <c r="A876" s="4" t="s">
         <v>879</v>
       </c>
@@ -12279,7 +12652,7 @@
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
     </row>
-    <row r="877" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:5" ht="14.25" customHeight="1">
       <c r="A877" s="4" t="s">
         <v>880</v>
       </c>
@@ -12288,7 +12661,7 @@
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
     </row>
-    <row r="878" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:5" ht="14.25" customHeight="1">
       <c r="A878" s="4" t="s">
         <v>881</v>
       </c>
@@ -12297,7 +12670,7 @@
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
     </row>
-    <row r="879" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" ht="14.25" customHeight="1">
       <c r="A879" s="4" t="s">
         <v>882</v>
       </c>
@@ -12306,7 +12679,7 @@
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
     </row>
-    <row r="880" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" ht="14.25" customHeight="1">
       <c r="A880" s="4" t="s">
         <v>883</v>
       </c>
@@ -12315,7 +12688,7 @@
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
     </row>
-    <row r="881" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:5" ht="14.25" customHeight="1">
       <c r="A881" s="4" t="s">
         <v>884</v>
       </c>
@@ -12324,7 +12697,7 @@
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
     </row>
-    <row r="882" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:5" ht="14.25" customHeight="1">
       <c r="A882" s="4" t="s">
         <v>885</v>
       </c>
@@ -12333,7 +12706,7 @@
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
     </row>
-    <row r="883" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" ht="14.25" customHeight="1">
       <c r="A883" s="4" t="s">
         <v>886</v>
       </c>
@@ -12342,7 +12715,7 @@
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
     </row>
-    <row r="884" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:5" ht="14.25" customHeight="1">
       <c r="A884" s="4" t="s">
         <v>887</v>
       </c>
@@ -12351,7 +12724,7 @@
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
     </row>
-    <row r="885" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:5" ht="14.25" customHeight="1">
       <c r="A885" s="4" t="s">
         <v>888</v>
       </c>
@@ -12360,7 +12733,7 @@
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
     </row>
-    <row r="886" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:5" ht="14.25" customHeight="1">
       <c r="A886" s="4" t="s">
         <v>889</v>
       </c>
@@ -12369,7 +12742,7 @@
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
     </row>
-    <row r="887" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:5" ht="14.25" customHeight="1">
       <c r="A887" s="4" t="s">
         <v>890</v>
       </c>
@@ -12378,7 +12751,7 @@
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
     </row>
-    <row r="888" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" ht="14.25" customHeight="1">
       <c r="A888" s="4" t="s">
         <v>891</v>
       </c>
@@ -12387,7 +12760,7 @@
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
     </row>
-    <row r="889" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:5" ht="14.25" customHeight="1">
       <c r="A889" s="4" t="s">
         <v>892</v>
       </c>
@@ -12396,7 +12769,7 @@
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
     </row>
-    <row r="890" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:5" ht="14.25" customHeight="1">
       <c r="A890" s="4" t="s">
         <v>893</v>
       </c>
@@ -12405,7 +12778,7 @@
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
     </row>
-    <row r="891" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:5" ht="14.25" customHeight="1">
       <c r="A891" s="4" t="s">
         <v>894</v>
       </c>
@@ -12414,7 +12787,7 @@
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
     </row>
-    <row r="892" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:5" ht="14.25" customHeight="1">
       <c r="A892" s="4" t="s">
         <v>895</v>
       </c>
@@ -12423,7 +12796,7 @@
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
     </row>
-    <row r="893" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" ht="14.25" customHeight="1">
       <c r="A893" s="4" t="s">
         <v>896</v>
       </c>
@@ -12432,7 +12805,7 @@
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
     </row>
-    <row r="894" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:5" ht="14.25" customHeight="1">
       <c r="A894" s="4" t="s">
         <v>897</v>
       </c>
@@ -12441,7 +12814,7 @@
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
     </row>
-    <row r="895" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:5" ht="14.25" customHeight="1">
       <c r="A895" s="4" t="s">
         <v>898</v>
       </c>
@@ -12450,7 +12823,7 @@
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
     </row>
-    <row r="896" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:5" ht="14.25" customHeight="1">
       <c r="A896" s="4" t="s">
         <v>899</v>
       </c>
@@ -12459,7 +12832,7 @@
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
     </row>
-    <row r="897" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:5" ht="14.25" customHeight="1">
       <c r="A897" s="4" t="s">
         <v>900</v>
       </c>
@@ -12468,7 +12841,7 @@
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
     </row>
-    <row r="898" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:5" ht="14.25" customHeight="1">
       <c r="A898" s="4" t="s">
         <v>901</v>
       </c>
@@ -12477,7 +12850,7 @@
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
     </row>
-    <row r="899" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:5" ht="14.25" customHeight="1">
       <c r="A899" s="4" t="s">
         <v>902</v>
       </c>
@@ -12486,7 +12859,7 @@
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
     </row>
-    <row r="900" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:5" ht="14.25" customHeight="1">
       <c r="A900" s="4" t="s">
         <v>903</v>
       </c>
@@ -12495,7 +12868,7 @@
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
     </row>
-    <row r="901" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:5" ht="14.25" customHeight="1">
       <c r="A901" s="4" t="s">
         <v>904</v>
       </c>
@@ -12504,7 +12877,7 @@
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
     </row>
-    <row r="902" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:5" ht="14.25" customHeight="1">
       <c r="A902" s="4" t="s">
         <v>905</v>
       </c>
@@ -12513,7 +12886,7 @@
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
     </row>
-    <row r="903" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:5" ht="14.25" customHeight="1">
       <c r="A903" s="4" t="s">
         <v>906</v>
       </c>
@@ -12522,7 +12895,7 @@
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
     </row>
-    <row r="904" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:5" ht="14.25" customHeight="1">
       <c r="A904" s="4" t="s">
         <v>907</v>
       </c>
@@ -12531,7 +12904,7 @@
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
     </row>
-    <row r="905" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:5" ht="14.25" customHeight="1">
       <c r="A905" s="4" t="s">
         <v>908</v>
       </c>
@@ -12540,7 +12913,7 @@
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
     </row>
-    <row r="906" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:5" ht="14.25" customHeight="1">
       <c r="A906" s="4" t="s">
         <v>909</v>
       </c>
@@ -12549,7 +12922,7 @@
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
     </row>
-    <row r="907" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:5" ht="14.25" customHeight="1">
       <c r="A907" s="4" t="s">
         <v>910</v>
       </c>
@@ -12558,7 +12931,7 @@
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
     </row>
-    <row r="908" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:5" ht="14.25" customHeight="1">
       <c r="A908" s="4" t="s">
         <v>911</v>
       </c>
@@ -12567,7 +12940,7 @@
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
     </row>
-    <row r="909" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:5" ht="14.25" customHeight="1">
       <c r="A909" s="4" t="s">
         <v>912</v>
       </c>
@@ -12576,7 +12949,7 @@
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
     </row>
-    <row r="910" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:5" ht="14.25" customHeight="1">
       <c r="A910" s="4" t="s">
         <v>913</v>
       </c>
@@ -12585,7 +12958,7 @@
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
     </row>
-    <row r="911" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:5" ht="14.25" customHeight="1">
       <c r="A911" s="4" t="s">
         <v>914</v>
       </c>
@@ -12594,7 +12967,7 @@
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
     </row>
-    <row r="912" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:5" ht="14.25" customHeight="1">
       <c r="A912" s="4" t="s">
         <v>915</v>
       </c>
@@ -12603,7 +12976,7 @@
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
     </row>
-    <row r="913" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:5" ht="14.25" customHeight="1">
       <c r="A913" s="4" t="s">
         <v>916</v>
       </c>
@@ -12612,7 +12985,7 @@
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
     </row>
-    <row r="914" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:5" ht="14.25" customHeight="1">
       <c r="A914" s="4" t="s">
         <v>917</v>
       </c>
@@ -12621,7 +12994,7 @@
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
     </row>
-    <row r="915" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:5" ht="14.25" customHeight="1">
       <c r="A915" s="4" t="s">
         <v>918</v>
       </c>
@@ -12630,7 +13003,7 @@
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
     </row>
-    <row r="916" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:5" ht="14.25" customHeight="1">
       <c r="A916" s="4" t="s">
         <v>919</v>
       </c>
@@ -12639,7 +13012,7 @@
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
     </row>
-    <row r="917" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:5" ht="14.25" customHeight="1">
       <c r="A917" s="4" t="s">
         <v>920</v>
       </c>
@@ -12648,7 +13021,7 @@
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
     </row>
-    <row r="918" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:5" ht="14.25" customHeight="1">
       <c r="A918" s="4" t="s">
         <v>921</v>
       </c>
@@ -12657,7 +13030,7 @@
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
     </row>
-    <row r="919" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:5" ht="14.25" customHeight="1">
       <c r="A919" s="4" t="s">
         <v>922</v>
       </c>
@@ -12666,7 +13039,7 @@
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
     </row>
-    <row r="920" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:5" ht="14.25" customHeight="1">
       <c r="A920" s="4" t="s">
         <v>923</v>
       </c>
@@ -12675,7 +13048,7 @@
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
     </row>
-    <row r="921" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:5" ht="14.25" customHeight="1">
       <c r="A921" s="4" t="s">
         <v>924</v>
       </c>
@@ -12684,7 +13057,7 @@
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
     </row>
-    <row r="922" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:5" ht="14.25" customHeight="1">
       <c r="A922" s="4" t="s">
         <v>925</v>
       </c>
@@ -12693,7 +13066,7 @@
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
     </row>
-    <row r="923" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:5" ht="14.25" customHeight="1">
       <c r="A923" s="4" t="s">
         <v>926</v>
       </c>
@@ -12702,7 +13075,7 @@
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
     </row>
-    <row r="924" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:5" ht="14.25" customHeight="1">
       <c r="A924" s="4" t="s">
         <v>927</v>
       </c>
@@ -12711,7 +13084,7 @@
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
     </row>
-    <row r="925" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:5" ht="14.25" customHeight="1">
       <c r="A925" s="4" t="s">
         <v>928</v>
       </c>
@@ -12720,7 +13093,7 @@
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
     </row>
-    <row r="926" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:5" ht="14.25" customHeight="1">
       <c r="A926" s="4" t="s">
         <v>929</v>
       </c>
@@ -12729,7 +13102,7 @@
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
     </row>
-    <row r="927" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:5" ht="14.25" customHeight="1">
       <c r="A927" s="4" t="s">
         <v>930</v>
       </c>
@@ -12738,7 +13111,7 @@
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
     </row>
-    <row r="928" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:5" ht="14.25" customHeight="1">
       <c r="A928" s="4" t="s">
         <v>931</v>
       </c>
@@ -12747,7 +13120,7 @@
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
     </row>
-    <row r="929" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:5" ht="14.25" customHeight="1">
       <c r="A929" s="4" t="s">
         <v>932</v>
       </c>
@@ -12756,7 +13129,7 @@
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
     </row>
-    <row r="930" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" ht="14.25" customHeight="1">
       <c r="A930" s="4" t="s">
         <v>933</v>
       </c>
@@ -12765,7 +13138,7 @@
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
     </row>
-    <row r="931" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:5" ht="14.25" customHeight="1">
       <c r="A931" s="4" t="s">
         <v>934</v>
       </c>
@@ -12774,7 +13147,7 @@
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
     </row>
-    <row r="932" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:5" ht="14.25" customHeight="1">
       <c r="A932" s="4" t="s">
         <v>935</v>
       </c>
@@ -12783,7 +13156,7 @@
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
     </row>
-    <row r="933" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:5" ht="14.25" customHeight="1">
       <c r="A933" s="4" t="s">
         <v>936</v>
       </c>
@@ -12792,7 +13165,7 @@
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
     </row>
-    <row r="934" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" ht="14.25" customHeight="1">
       <c r="A934" s="4" t="s">
         <v>937</v>
       </c>
@@ -12801,7 +13174,7 @@
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
     </row>
-    <row r="935" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:5" ht="14.25" customHeight="1">
       <c r="A935" s="4" t="s">
         <v>938</v>
       </c>
@@ -12810,7 +13183,7 @@
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
     </row>
-    <row r="936" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" ht="14.25" customHeight="1">
       <c r="A936" s="4" t="s">
         <v>939</v>
       </c>
@@ -12819,7 +13192,7 @@
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
     </row>
-    <row r="937" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:5" ht="14.25" customHeight="1">
       <c r="A937" s="4" t="s">
         <v>940</v>
       </c>
@@ -12828,7 +13201,7 @@
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
     </row>
-    <row r="938" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:5" ht="14.25" customHeight="1">
       <c r="A938" s="4" t="s">
         <v>941</v>
       </c>
@@ -12837,7 +13210,7 @@
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
     </row>
-    <row r="939" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:5" ht="14.25" customHeight="1">
       <c r="A939" s="4" t="s">
         <v>942</v>
       </c>
@@ -12846,7 +13219,7 @@
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
     </row>
-    <row r="940" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:5" ht="14.25" customHeight="1">
       <c r="A940" s="4" t="s">
         <v>943</v>
       </c>
@@ -12855,7 +13228,7 @@
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
     </row>
-    <row r="941" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:5" ht="14.25" customHeight="1">
       <c r="A941" s="4" t="s">
         <v>944</v>
       </c>
@@ -12864,7 +13237,7 @@
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
     </row>
-    <row r="942" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:5" ht="14.25" customHeight="1">
       <c r="A942" s="4" t="s">
         <v>945</v>
       </c>
@@ -12873,7 +13246,7 @@
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
     </row>
-    <row r="943" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:5" ht="14.25" customHeight="1">
       <c r="A943" s="4" t="s">
         <v>946</v>
       </c>
@@ -12882,7 +13255,7 @@
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
     </row>
-    <row r="944" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:5" ht="14.25" customHeight="1">
       <c r="A944" s="4" t="s">
         <v>947</v>
       </c>
@@ -12891,7 +13264,7 @@
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
     </row>
-    <row r="945" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:5" ht="14.25" customHeight="1">
       <c r="A945" s="4" t="s">
         <v>948</v>
       </c>
@@ -12900,7 +13273,7 @@
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
     </row>
-    <row r="946" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:5" ht="14.25" customHeight="1">
       <c r="A946" s="4" t="s">
         <v>949</v>
       </c>
@@ -12909,7 +13282,7 @@
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
     </row>
-    <row r="947" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:5" ht="14.25" customHeight="1">
       <c r="A947" s="4" t="s">
         <v>950</v>
       </c>
@@ -12918,7 +13291,7 @@
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
     </row>
-    <row r="948" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:5" ht="14.25" customHeight="1">
       <c r="A948" s="4" t="s">
         <v>951</v>
       </c>
@@ -12927,7 +13300,7 @@
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
     </row>
-    <row r="949" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:5" ht="14.25" customHeight="1">
       <c r="A949" s="4" t="s">
         <v>952</v>
       </c>
@@ -12936,7 +13309,7 @@
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
     </row>
-    <row r="950" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:5" ht="14.25" customHeight="1">
       <c r="A950" s="4" t="s">
         <v>953</v>
       </c>
@@ -12945,7 +13318,7 @@
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
     </row>
-    <row r="951" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:5" ht="14.25" customHeight="1">
       <c r="A951" s="4" t="s">
         <v>954</v>
       </c>
@@ -12954,7 +13327,7 @@
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
     </row>
-    <row r="952" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:5" ht="14.25" customHeight="1">
       <c r="A952" s="4" t="s">
         <v>955</v>
       </c>
@@ -12963,7 +13336,7 @@
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
     </row>
-    <row r="953" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:5" ht="14.25" customHeight="1">
       <c r="A953" s="4" t="s">
         <v>956</v>
       </c>
@@ -12972,7 +13345,7 @@
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
     </row>
-    <row r="954" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:5" ht="14.25" customHeight="1">
       <c r="A954" s="4" t="s">
         <v>957</v>
       </c>
@@ -12981,7 +13354,7 @@
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
     </row>
-    <row r="955" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:5" ht="14.25" customHeight="1">
       <c r="A955" s="4" t="s">
         <v>958</v>
       </c>
@@ -12990,7 +13363,7 @@
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
     </row>
-    <row r="956" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:5" ht="14.25" customHeight="1">
       <c r="A956" s="4" t="s">
         <v>959</v>
       </c>
@@ -12999,7 +13372,7 @@
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
     </row>
-    <row r="957" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:5" ht="14.25" customHeight="1">
       <c r="A957" s="4" t="s">
         <v>960</v>
       </c>
@@ -13008,7 +13381,7 @@
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
     </row>
-    <row r="958" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:5" ht="14.25" customHeight="1">
       <c r="A958" s="4" t="s">
         <v>961</v>
       </c>
@@ -13017,7 +13390,7 @@
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
     </row>
-    <row r="959" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:5" ht="14.25" customHeight="1">
       <c r="A959" s="4" t="s">
         <v>962</v>
       </c>
@@ -13026,7 +13399,7 @@
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
     </row>
-    <row r="960" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:5" ht="14.25" customHeight="1">
       <c r="A960" s="4" t="s">
         <v>963</v>
       </c>
@@ -13035,7 +13408,7 @@
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
     </row>
-    <row r="961" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" ht="14.25" customHeight="1">
       <c r="A961" s="4" t="s">
         <v>964</v>
       </c>
@@ -13044,7 +13417,7 @@
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
     </row>
-    <row r="962" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:5" ht="14.25" customHeight="1">
       <c r="A962" s="4" t="s">
         <v>965</v>
       </c>
@@ -13053,7 +13426,7 @@
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
     </row>
-    <row r="963" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:5" ht="14.25" customHeight="1">
       <c r="A963" s="4" t="s">
         <v>966</v>
       </c>
@@ -13062,7 +13435,7 @@
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
     </row>
-    <row r="964" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:5" ht="14.25" customHeight="1">
       <c r="A964" s="4" t="s">
         <v>967</v>
       </c>
@@ -13071,7 +13444,7 @@
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
     </row>
-    <row r="965" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:5" ht="14.25" customHeight="1">
       <c r="A965" s="4" t="s">
         <v>968</v>
       </c>
@@ -13080,7 +13453,7 @@
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
     </row>
-    <row r="966" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:5" ht="14.25" customHeight="1">
       <c r="A966" s="4" t="s">
         <v>969</v>
       </c>
@@ -13089,7 +13462,7 @@
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
     </row>
-    <row r="967" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:5" ht="14.25" customHeight="1">
       <c r="A967" s="4" t="s">
         <v>970</v>
       </c>
@@ -13098,7 +13471,7 @@
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
     </row>
-    <row r="968" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:5" ht="14.25" customHeight="1">
       <c r="A968" s="4" t="s">
         <v>971</v>
       </c>
@@ -13107,7 +13480,7 @@
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
     </row>
-    <row r="969" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:5" ht="14.25" customHeight="1">
       <c r="A969" s="4" t="s">
         <v>972</v>
       </c>
@@ -13116,7 +13489,7 @@
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
     </row>
-    <row r="970" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:5" ht="14.25" customHeight="1">
       <c r="A970" s="4" t="s">
         <v>973</v>
       </c>
@@ -13125,7 +13498,7 @@
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
     </row>
-    <row r="971" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:5" ht="14.25" customHeight="1">
       <c r="A971" s="4" t="s">
         <v>974</v>
       </c>
@@ -13134,7 +13507,7 @@
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
     </row>
-    <row r="972" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:5" ht="14.25" customHeight="1">
       <c r="A972" s="4" t="s">
         <v>975</v>
       </c>
@@ -13143,7 +13516,7 @@
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
     </row>
-    <row r="973" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:5" ht="14.25" customHeight="1">
       <c r="A973" s="4" t="s">
         <v>976</v>
       </c>
@@ -13152,7 +13525,7 @@
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
     </row>
-    <row r="974" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:5" ht="14.25" customHeight="1">
       <c r="A974" s="4" t="s">
         <v>977</v>
       </c>
@@ -13161,7 +13534,7 @@
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
     </row>
-    <row r="975" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:5" ht="14.25" customHeight="1">
       <c r="A975" s="4" t="s">
         <v>978</v>
       </c>
@@ -13170,7 +13543,7 @@
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
     </row>
-    <row r="976" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" ht="14.25" customHeight="1">
       <c r="A976" s="4" t="s">
         <v>979</v>
       </c>
@@ -13179,7 +13552,7 @@
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
     </row>
-    <row r="977" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:5" ht="14.25" customHeight="1">
       <c r="A977" s="4" t="s">
         <v>980</v>
       </c>
@@ -13188,7 +13561,7 @@
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
     </row>
-    <row r="978" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:5" ht="14.25" customHeight="1">
       <c r="A978" s="4" t="s">
         <v>981</v>
       </c>
@@ -13197,7 +13570,7 @@
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
     </row>
-    <row r="979" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:5" ht="14.25" customHeight="1">
       <c r="A979" s="4" t="s">
         <v>982</v>
       </c>
@@ -13206,7 +13579,7 @@
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
     </row>
-    <row r="980" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:5" ht="14.25" customHeight="1">
       <c r="A980" s="4" t="s">
         <v>983</v>
       </c>
@@ -13215,7 +13588,7 @@
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
     </row>
-    <row r="981" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:5" ht="14.25" customHeight="1">
       <c r="A981" s="4" t="s">
         <v>984</v>
       </c>
@@ -13224,7 +13597,7 @@
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
     </row>
-    <row r="982" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:5" ht="14.25" customHeight="1">
       <c r="A982" s="4" t="s">
         <v>985</v>
       </c>
@@ -13233,7 +13606,7 @@
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
     </row>
-    <row r="983" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:5" ht="14.25" customHeight="1">
       <c r="A983" s="4" t="s">
         <v>986</v>
       </c>
@@ -13242,7 +13615,7 @@
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
     </row>
-    <row r="984" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:5" ht="14.25" customHeight="1">
       <c r="A984" s="4" t="s">
         <v>987</v>
       </c>
@@ -13251,7 +13624,7 @@
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
     </row>
-    <row r="985" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:5" ht="14.25" customHeight="1">
       <c r="A985" s="4" t="s">
         <v>988</v>
       </c>
@@ -13260,7 +13633,7 @@
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>
     </row>
-    <row r="986" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:5" ht="14.25" customHeight="1">
       <c r="A986" s="4" t="s">
         <v>989</v>
       </c>
@@ -13269,7 +13642,7 @@
       <c r="D986" s="5"/>
       <c r="E986" s="5"/>
     </row>
-    <row r="987" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" ht="14.25" customHeight="1">
       <c r="A987" s="4" t="s">
         <v>990</v>
       </c>
@@ -13278,7 +13651,7 @@
       <c r="D987" s="5"/>
       <c r="E987" s="5"/>
     </row>
-    <row r="988" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:5" ht="14.25" customHeight="1">
       <c r="A988" s="4" t="s">
         <v>991</v>
       </c>
@@ -13287,7 +13660,7 @@
       <c r="D988" s="5"/>
       <c r="E988" s="5"/>
     </row>
-    <row r="989" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:5" ht="14.25" customHeight="1">
       <c r="A989" s="4" t="s">
         <v>992</v>
       </c>
@@ -13296,7 +13669,7 @@
       <c r="D989" s="5"/>
       <c r="E989" s="5"/>
     </row>
-    <row r="990" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" ht="14.25" customHeight="1">
       <c r="A990" s="4" t="s">
         <v>993</v>
       </c>
@@ -13305,7 +13678,7 @@
       <c r="D990" s="5"/>
       <c r="E990" s="5"/>
     </row>
-    <row r="991" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" ht="14.25" customHeight="1">
       <c r="A991" s="4" t="s">
         <v>994</v>
       </c>
@@ -13314,7 +13687,7 @@
       <c r="D991" s="5"/>
       <c r="E991" s="5"/>
     </row>
-    <row r="992" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:5" ht="14.25" customHeight="1">
       <c r="A992" s="4" t="s">
         <v>995</v>
       </c>
@@ -13323,7 +13696,7 @@
       <c r="D992" s="5"/>
       <c r="E992" s="5"/>
     </row>
-    <row r="993" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" ht="14.25" customHeight="1">
       <c r="A993" s="4" t="s">
         <v>996</v>
       </c>
@@ -13332,7 +13705,7 @@
       <c r="D993" s="5"/>
       <c r="E993" s="5"/>
     </row>
-    <row r="994" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:5" ht="14.25" customHeight="1">
       <c r="A994" s="4" t="s">
         <v>997</v>
       </c>
@@ -13341,7 +13714,7 @@
       <c r="D994" s="5"/>
       <c r="E994" s="5"/>
     </row>
-    <row r="995" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:5" ht="14.25" customHeight="1">
       <c r="A995" s="4" t="s">
         <v>998</v>
       </c>
@@ -13350,7 +13723,7 @@
       <c r="D995" s="5"/>
       <c r="E995" s="5"/>
     </row>
-    <row r="996" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" ht="14.25" customHeight="1">
       <c r="A996" s="4" t="s">
         <v>999</v>
       </c>
@@ -13359,7 +13732,7 @@
       <c r="D996" s="5"/>
       <c r="E996" s="5"/>
     </row>
-    <row r="997" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:5" ht="14.25" customHeight="1">
       <c r="A997" s="4" t="s">
         <v>1000</v>
       </c>
@@ -13368,7 +13741,7 @@
       <c r="D997" s="5"/>
       <c r="E997" s="5"/>
     </row>
-    <row r="998" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" ht="14.25" customHeight="1">
       <c r="A998" s="4" t="s">
         <v>1001</v>
       </c>
@@ -13377,7 +13750,7 @@
       <c r="D998" s="5"/>
       <c r="E998" s="5"/>
     </row>
-    <row r="999" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:5" ht="14.25" customHeight="1">
       <c r="A999" s="4" t="s">
         <v>1002</v>
       </c>
@@ -13386,7 +13759,7 @@
       <c r="D999" s="5"/>
       <c r="E999" s="5"/>
     </row>
-    <row r="1000" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1000" s="4" t="s">
         <v>1003</v>
       </c>
